--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6487AA-2030-489D-B4AC-AEC08C88476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1BDEE7-1AF4-4BBD-A3AA-4BB2334892F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dash Vendedores" sheetId="5" r:id="rId1"/>
@@ -20,11 +20,22 @@
     <sheet name="Dados Vendedor" sheetId="2" r:id="rId5"/>
     <sheet name="Imagens" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>Vendedor</t>
   </si>
@@ -173,9 +184,6 @@
     <t xml:space="preserve">Soma de  Total </t>
   </si>
   <si>
-    <t>(Tudo)</t>
-  </si>
-  <si>
     <t>Ruim</t>
   </si>
   <si>
@@ -204,6 +212,12 @@
   </si>
   <si>
     <t>Marcador</t>
+  </si>
+  <si>
+    <t>Meta Atingida</t>
+  </si>
+  <si>
+    <t>Quantidade Vendida</t>
   </si>
 </sst>
 </file>
@@ -255,23 +269,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Moeda 2" xfId="1" xr:uid="{D20B583B-A55C-4FA0-80A7-B1D30624E25E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -288,6 +309,961 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FD93-4BAD-BC09-C914521959AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico Velocímetro'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ruim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regular</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bom </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ótimo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Velocímetro'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD93-4BAD-BC09-C914521959AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+        <c:holeSize val="49"/>
+      </c:doughnutChart>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico Velocímetro'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ponteiro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FD93-4BAD-BC09-C914521959AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Velocímetro'!$B$11:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>1956.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>1993.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FD93-4BAD-BC09-C914521959AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,15 +1586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>255814</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>375557</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:colOff>364671</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -633,7 +1609,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5480957" y="1153886"/>
+          <a:off x="5470071" y="1094015"/>
           <a:ext cx="1426029" cy="337457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -676,10 +1652,556 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153755</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7D992E-3166-47A9-99B1-60B0B787E901}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="195943" y="2585358"/>
+              <a:ext cx="1828800" cy="2564940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>239486</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>114301</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>244929</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>119745</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Imagem 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B599578F-BA78-66B9-114C-EB00B6B649EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4158343" y="3075215"/>
+              <a:ext cx="3271157" cy="1485901"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>587827</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Gráfico Velocímetro'!D14">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CaixaDeTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAD9304-EAD0-19A7-4CD8-0BC68B1607C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5872842" y="1475013"/>
+          <a:ext cx="593271" cy="359229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{3838C14F-158F-451C-85FE-9C37E9C08C94}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>18</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Gráfico Velocímetro'!B11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CaixaDeTexto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BFBCC8-2C40-887B-E4FC-DB6913C774A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1861457" y="1431473"/>
+          <a:ext cx="1823357" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B08EEE76-8BE7-4B11-AD95-5488C4A681F1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t> R$ 1.956,14 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF76D0E3-E46F-E00A-BB9F-C6AEF0DDEF30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59872</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Elipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1032D041-319A-399D-621B-FB7E1918DE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6340929" y="1551214"/>
+          <a:ext cx="859972" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB73BF20-5D3D-6059-9858-7B047A31ACB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5698671" y="1992086"/>
+          <a:ext cx="2106386" cy="576943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179615</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$D$11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE00CFC-DA98-E406-CB08-6F0F1B72E971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6460672" y="1643743"/>
+          <a:ext cx="647700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{331043A0-A00A-4DD5-B776-1CE8C85FA5A7}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>98%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1066,7 +2588,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="178555717"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1374,8 +2896,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E36" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="9">
@@ -1465,20 +2987,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="33">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
       <x/>
@@ -1491,84 +3000,6 @@
     </i>
     <i r="1">
       <x v="17"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -1589,7 +3020,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="3">
     <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
@@ -1606,6 +3037,34 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{A7E87AAD-35A3-4421-AE2C-9260A8026293}" sourceName="Vendedor">
+  <pivotTables>
+    <pivotTable tabId="4" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="178555717">
+      <items count="8">
+        <i x="5"/>
+        <i x="3" s="1"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="1"/>
+        <i x="0"/>
+        <i x="2"/>
+        <i x="4"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Vendedor" xr10:uid="{3B59B178-69D6-41A5-B9F2-FF96B8EC448E}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="245835"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1919,17 +3378,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
   <dimension ref="G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="9" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8652933-C170-41DA-A432-E2948A22B9AF}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.765625" customWidth="1"/>
+    <col min="2" max="2" width="12.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5">
+        <f>$B$6/4</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B6" si="0">$B$6/4</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUM('Tabela Dinâmica'!E:E)/2</f>
+        <v>1956.14</v>
+      </c>
+      <c r="D11" s="8">
+        <f>B11/B6</f>
+        <v>0.97806999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="6">
+        <f>B6*2-(B11+B12)</f>
+        <v>1993.86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <f>SUM('Tabela Dinâmica'!C:C)/2</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1937,81 +3520,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8652933-C170-41DA-A432-E2948A22B9AF}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.23046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.69140625" bestFit="1" customWidth="1"/>
@@ -2022,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -2044,560 +3564,84 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
         <v>148.56</v>
       </c>
-      <c r="E4" s="3">
-        <v>297.12</v>
+      <c r="E4" s="7">
+        <v>1337.04</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>448.28</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1120.6999999999998</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>111.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>153.4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>153.4</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E6" s="7">
+        <v>327.60000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3">
-        <v>120</v>
+      <c r="D7" s="7">
+        <v>119.8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>179.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>148.56</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1337.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>55.9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>111.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="E10" s="3">
-        <v>327.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7">
         <v>18</v>
       </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>119.8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>179.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>116.52</v>
-      </c>
-      <c r="E12" s="3">
-        <v>349.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>89.99</v>
-      </c>
-      <c r="E13" s="3">
-        <v>89.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>59.9</v>
-      </c>
-      <c r="E14" s="3">
-        <v>119.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="E16" s="3">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>390</v>
-      </c>
-      <c r="E17" s="3">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>497.46</v>
-      </c>
-      <c r="E18" s="3">
-        <v>746.18999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>46.9</v>
-      </c>
-      <c r="E19" s="3">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="E20" s="3">
-        <v>349.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>153.4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>306.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>41.9</v>
-      </c>
-      <c r="E22" s="3">
-        <v>167.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>89.9</v>
-      </c>
-      <c r="E23" s="3">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>46.9</v>
-      </c>
-      <c r="E24" s="3">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>146.13999999999999</v>
-      </c>
-      <c r="E25" s="3">
-        <v>146.13999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3">
-        <v>301</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1354.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>89.99</v>
-      </c>
-      <c r="E27" s="3">
-        <v>269.97000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>148.56</v>
-      </c>
-      <c r="E28" s="3">
-        <v>891.36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>153.4</v>
-      </c>
-      <c r="E29" s="3">
-        <v>153.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>41.9</v>
-      </c>
-      <c r="E30" s="3">
-        <v>83.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3">
-        <v>233.04</v>
-      </c>
-      <c r="E31" s="3">
-        <v>466.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="3">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="E32" s="3">
-        <v>737.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>153.4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>153.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>146.13999999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>146.13999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="3">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="E35" s="3">
-        <v>655.20000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="3">
-        <v>104</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4486.619999999999</v>
-      </c>
-      <c r="E36" s="3">
-        <v>12034.929999999998</v>
+      <c r="D8" s="7">
+        <v>406.16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1956.14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1BDEE7-1AF4-4BBD-A3AA-4BB2334892F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37059356-0951-4290-8248-3A0F6F19C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
   <si>
     <t>Vendedor</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Quantidade Vendida</t>
+  </si>
+  <si>
+    <t>Meta Vendas: R$ 2.000,00</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -228,7 +234,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,21 +257,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -275,7 +309,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -285,8 +319,16 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -634,13 +676,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>1956.14</c:v>
+                  <c:v>2331.7399999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>1993.86</c:v>
+                  <c:v>1618.2600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,16 +1312,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1294,8 +1336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1045028" y="974272"/>
-          <a:ext cx="2764972" cy="941614"/>
+          <a:off x="2057399" y="745671"/>
+          <a:ext cx="2618015" cy="919843"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1340,16 +1382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201385</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>55337</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279332</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1381,8 +1423,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1148443" y="1012372"/>
-          <a:ext cx="748393" cy="708479"/>
+          <a:off x="2160814" y="778382"/>
+          <a:ext cx="731089" cy="692098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1393,16 +1435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>146956</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>506185</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>534674</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1417,8 +1459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2106385" y="1110343"/>
-          <a:ext cx="1409700" cy="293914"/>
+          <a:off x="3118756" y="866768"/>
+          <a:ext cx="1334775" cy="287118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,16 +1504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1486,8 +1528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="979714"/>
-          <a:ext cx="2764972" cy="941614"/>
+          <a:off x="4762500" y="740229"/>
+          <a:ext cx="2563586" cy="925285"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1532,16 +1574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>439056</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281214</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>32655</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:colOff>536032</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1573,8 +1615,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4357913" y="996043"/>
-          <a:ext cx="899885" cy="778329"/>
+          <a:off x="4853214" y="762222"/>
+          <a:ext cx="907961" cy="785314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,16 +1627,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>168729</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>364671</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102965</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>96746</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1609,8 +1651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470071" y="1094015"/>
-          <a:ext cx="1426029" cy="337457"/>
+          <a:off x="5965372" y="875483"/>
+          <a:ext cx="1322164" cy="331606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,15 +1697,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>179615</xdr:rowOff>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>153755</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142869</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1699,7 +1741,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="195943" y="2585358"/>
+              <a:off x="130628" y="740229"/>
               <a:ext cx="1828800" cy="2564940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1734,16 +1776,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>239486</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>114301</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>457199</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>244929</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>119745</xdr:rowOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>370115</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>97972</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1758,7 +1800,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1029"/>
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1032"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1772,8 +1814,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4158343" y="3075215"/>
-              <a:ext cx="3271157" cy="1485901"/>
+              <a:off x="6988628" y="892629"/>
+              <a:ext cx="3657601" cy="1627414"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1797,16 +1839,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>587827</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>168728</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>386774</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gráfico Velocímetro'!D14">
       <xdr:nvSpPr>
@@ -1821,8 +1863,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5872842" y="1475013"/>
-          <a:ext cx="593271" cy="359229"/>
+          <a:off x="6368142" y="1217626"/>
+          <a:ext cx="550061" cy="352999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,7 +1902,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>18</a:t>
+            <a:t>22</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="2400">
             <a:solidFill>
@@ -1874,16 +1916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>136073</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>174173</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gráfico Velocímetro'!B11">
       <xdr:nvSpPr>
@@ -1898,8 +1940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1861457" y="1431473"/>
-          <a:ext cx="1823357" cy="408214"/>
+          <a:off x="2873829" y="1190540"/>
+          <a:ext cx="1726446" cy="398776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1937,7 +1979,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t> R$ 1.956,14 </a:t>
+            <a:t> R$ 2.331,74 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1800">
             <a:solidFill>
@@ -2190,7 +2232,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>98%</a:t>
+            <a:t>117%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1600"/>
         </a:p>
@@ -2897,7 +2939,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="9">
@@ -2987,19 +3029,22 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
-      <x v="1"/>
+      <x v="6"/>
       <x/>
     </i>
     <i r="1">
-      <x v="14"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
     </i>
     <i r="1">
       <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
     </i>
     <i t="grand">
       <x/>
@@ -3020,7 +3065,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="6" hier="-1"/>
   </pageFields>
   <dataFields count="3">
     <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
@@ -3048,12 +3093,12 @@
     <tabular pivotCacheId="178555717">
       <items count="8">
         <i x="5"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="6"/>
         <i x="7"/>
         <i x="1"/>
         <i x="0"/>
-        <i x="2"/>
+        <i x="2" s="1"/>
         <i x="4"/>
       </items>
     </tabular>
@@ -3379,18 +3424,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
-  <dimension ref="G9"/>
+  <dimension ref="G5:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="12" max="12" width="6.84375" customWidth="1"/>
+    <col min="13" max="13" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.23046875" customWidth="1"/>
+    <col min="15" max="15" width="11.3828125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="7:15" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="M5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="9" spans="7:15" x14ac:dyDescent="0.4">
       <c r="G9" s="4"/>
     </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="M15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="M16" t="str">
+        <f t="array" ref="M16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A1)),2),"")</f>
+        <v>Bermuda Masculino</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="array" ref="N16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B1)),5),"")</f>
+        <v>891.36</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M17" t="str">
+        <f t="array" ref="M17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A2)),2),"")</f>
+        <v>Camisa Masculina</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="array" ref="N17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B2)),5),"")</f>
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M18" t="str">
+        <f t="array" ref="M18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A3)),2),"")</f>
+        <v>Camisa Térmica</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="array" ref="N18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B3)),5),"")</f>
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M19" t="str">
+        <f t="array" ref="M19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A4)),2),"")</f>
+        <v>Kit de Pinceis de Maquiagem</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="array" ref="N19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B4)),5),"")</f>
+        <v>466.08</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M20" t="str">
+        <f t="array" ref="M20">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A5)),2),"")</f>
+        <v>Sapato Social</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="array" ref="N20">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B5)),5),"")</f>
+        <v>737.1</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M21" t="str">
+        <f t="array" ref="M21">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A6)),2),"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f t="array" ref="N21">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B6)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M22" t="str">
+        <f t="array" ref="M22">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A7)),2),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f t="array" ref="N22">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B7)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M23" t="str">
+        <f t="array" ref="M23">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A8)),2),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f t="array" ref="N23">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B8)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M24" t="str">
+        <f t="array" ref="M24">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A9)),2),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f t="array" ref="N24">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B9)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M25" t="str">
+        <f t="array" ref="M25">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A10)),2),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f t="array" ref="N25">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B10)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.4">
+      <c r="M26" t="str">
+        <f t="array" ref="M26">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A11)),2),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f t="array" ref="N26">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B11)),5),"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M5:N5"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3437,7 +3616,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B6" si="0">$B$6/4</f>
+        <f t="shared" ref="B3:B5" si="0">$B$6/4</f>
         <v>500</v>
       </c>
     </row>
@@ -3481,11 +3660,11 @@
       </c>
       <c r="B11" s="5">
         <f>SUM('Tabela Dinâmica'!E:E)/2</f>
-        <v>1956.14</v>
-      </c>
-      <c r="D11" s="8">
+        <v>2331.7399999999998</v>
+      </c>
+      <c r="D11" s="7">
         <f>B11/B6</f>
-        <v>0.97806999999999999</v>
+        <v>1.16587</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -3502,7 +3681,7 @@
       </c>
       <c r="B13" s="6">
         <f>B6*2-(B11+B12)</f>
-        <v>1993.86</v>
+        <v>1618.2600000000002</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -3511,7 +3690,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14">
         <f>SUM('Tabela Dinâmica'!C:C)/2</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3701,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
@@ -3531,7 +3710,7 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.23046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.69140625" bestFit="1" customWidth="1"/>
@@ -3542,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -3564,84 +3743,101 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="8">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8">
         <v>148.56</v>
       </c>
-      <c r="E4" s="7">
-        <v>1337.04</v>
+      <c r="E4" s="8">
+        <v>891.36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>55.9</v>
-      </c>
-      <c r="E5" s="7">
-        <v>111.8</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>153.4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>153.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="E6" s="7">
-        <v>327.60000000000002</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>41.9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>83.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>119.8</v>
-      </c>
-      <c r="E7" s="7">
-        <v>179.7</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>233.04</v>
+      </c>
+      <c r="E7" s="8">
+        <v>466.08</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E8" s="8">
+        <v>737.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="7">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7">
-        <v>406.16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1956.14</v>
+      <c r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8">
+        <v>658.8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2331.7399999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37059356-0951-4290-8248-3A0F6F19C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664865A9-B1DF-4B03-8034-955BDA7698A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
   <si>
     <t>Vendedor</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
 </sst>
 </file>
 
@@ -320,8 +323,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -329,6 +330,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -749,7 +754,777 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[077_Dashboard+Dados.xlsx]Tabela Dinâmica!Tabela dinâmica2</c:name>
+    <c:fmtId val="11"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$H$4:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bermuda Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camisa Masculina</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camisa Térmica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kit de Pinceis de Maquiagem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sapato Social</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>891.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>737.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A09-4942-B2BC-CBE177AB9B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="779852016"/>
+        <c:axId val="779852376"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="779852016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779852376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="779852376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779852016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[077_Dashboard+Dados.xlsx]Tabela Dinâmica!Tabela dinâmica2</c:name>
+    <c:fmtId val="46"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$H$4:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bermuda Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camisa Masculina</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camisa Térmica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kit de Pinceis de Maquiagem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sapato Social</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>891.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>737.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37B1-4EB5-A68B-276882BA3C0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="835636472"/>
+        <c:axId val="835642232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="835636472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835642232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="835642232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="835636472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1308,200 +2083,1032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>97970</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103414</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1A15E9-8869-8362-7A9E-FF429EB84A13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057399" y="745671"/>
-          <a:ext cx="2618015" cy="919843"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9731"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>201385</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38153</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>279332</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 3" descr="Money">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECE59A4-C2A1-491A-BA1C-4B0A848F7048}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2160814" y="778382"/>
-          <a:ext cx="731089" cy="692098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>506185</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>126539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>534674</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4792851F-BEDE-386E-3DCB-68098BE6CC34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3118756" y="866768"/>
-          <a:ext cx="1334775" cy="287118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Total de Vendas</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1599,13 +3206,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1707,8 +3314,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>142869</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Vendedor">
@@ -1731,7 +3338,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1800,13 +3407,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1032"/>
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1043"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1916,6 +3523,198 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1A15E9-8869-8362-7A9E-FF429EB84A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057399" y="745671"/>
+          <a:ext cx="2618015" cy="919843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9731"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201385</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279332</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 3" descr="Money">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECE59A4-C2A1-491A-BA1C-4B0A848F7048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2160814" y="778382"/>
+          <a:ext cx="731089" cy="692098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>506185</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>534674</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4792851F-BEDE-386E-3DCB-68098BE6CC34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3118756" y="866768"/>
+          <a:ext cx="1334775" cy="287118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total de Vendas</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>261258</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1986,6 +3785,262 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>97972</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Imagem 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9DA5E7-36D3-E9D5-0B02-E76D2139D895}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1959429" y="1866900"/>
+              <a:ext cx="5323114" cy="2220686"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CaixaDeTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1993F308-B9BA-0180-A635-3F3514EDA629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2204357" y="4016829"/>
+          <a:ext cx="756557" cy="157843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>604157</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>59872</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>70757</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>59872</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Imagem 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A521C3FB-FA1A-41F5-DEFC-23186785F4EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6482443" y="4332515"/>
+              <a:ext cx="5323114" cy="2220686"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>642256</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CaixaDeTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE9A468-02D1-49E4-7D08-C7314C2976C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6520543" y="6477001"/>
+          <a:ext cx="653142" cy="168729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2244,6 +4299,83 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277587</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24491</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D95125-154C-4294-23AD-0EAF5E3E374D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799B373B-0C45-B5D2-970F-BDAA96A25379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2938,7 +5070,113 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96BAF40F-D193-4453-A89D-BD5490F4B4AB}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="66">
+  <location ref="H3:I9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="19">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de  Total " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="46" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
@@ -3088,6 +5326,7 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{A7E87AAD-35A3-4421-AE2C-9260A8026293}" sourceName="Vendedor">
   <pivotTables>
     <pivotTable tabId="4" name="Tabela dinâmica1"/>
+    <pivotTable tabId="4" name="Tabela dinâmica2"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="178555717">
@@ -3424,10 +5663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
-  <dimension ref="G5:O26"/>
+  <dimension ref="G5:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3438,25 +5677,24 @@
     <col min="15" max="15" width="11.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:15" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="M5" s="12" t="s">
+    <row r="5" spans="7:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="9" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="N5" s="10"/>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.4">
       <c r="G9" s="4"/>
     </row>
-    <row r="15" spans="7:15" x14ac:dyDescent="0.4">
-      <c r="M15" s="10" t="s">
+    <row r="15" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="M15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="7:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="7:14" x14ac:dyDescent="0.4">
       <c r="M16" t="str">
         <f t="array" ref="M16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A1)),2),"")</f>
         <v>Bermuda Masculino</v>
@@ -3701,22 +5939,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.15234375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.53515625" customWidth="1"/>
     <col min="4" max="4" width="20.23046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3724,7 +5964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3740,108 +5980,151 @@
       <c r="E3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="12">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <v>148.56</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>891.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12">
+        <v>891.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>153.4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>153.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="12">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>41.9</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="12">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="12">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="12">
         <v>233.04</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="12">
         <v>466.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12">
+        <v>466.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <v>9</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="12">
         <v>81.900000000000006</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="12">
         <v>737.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12">
+        <v>737.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="12">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="12">
         <v>658.8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="12">
+        <v>2331.7399999999998</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="12">
         <v>2331.7399999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -8,29 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664865A9-B1DF-4B03-8034-955BDA7698A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AD66E-5B66-4647-9CC1-52938B92BCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dash Vendedores" sheetId="5" r:id="rId1"/>
-    <sheet name="Gráfico Velocímetro" sheetId="6" r:id="rId2"/>
-    <sheet name="Tabela Dinâmica" sheetId="4" r:id="rId3"/>
-    <sheet name="Vendas" sheetId="1" r:id="rId4"/>
-    <sheet name="Dados Vendedor" sheetId="2" r:id="rId5"/>
-    <sheet name="Imagens" sheetId="3" r:id="rId6"/>
+    <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Gráfico Velocímetro" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Tabela Dinâmica" sheetId="4" r:id="rId4"/>
+    <sheet name="Vendas" sheetId="1" r:id="rId5"/>
+    <sheet name="Dados Vendedor" sheetId="2" r:id="rId6"/>
+    <sheet name="Imagens" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
   <si>
     <t>Vendedor</t>
   </si>
@@ -228,6 +231,9 @@
   <si>
     <t>Rótulos de Linha</t>
   </si>
+  <si>
+    <t>DASHBOARD TOTAL VENDAS POR VENDEDOR</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +243,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +273,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -305,6 +332,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -312,7 +354,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -327,13 +369,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -341,7 +391,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     </dxf>
@@ -681,13 +741,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>2331.7399999999998</c:v>
+                  <c:v>1691.2199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>1618.2600000000002</c:v>
+                  <c:v>2258.7800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,47 +927,41 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$H$4:$H$9</c:f>
+              <c:f>'Tabela Dinâmica'!$H$4:$H$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Bermuda Masculino</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Bota Masculina</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Camisa Masculina</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Camisa Térmica</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kit de Pinceis de Maquiagem</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sapato Social</c:v>
+                  <c:v>Chinelo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$I$4:$I$9</c:f>
+              <c:f>'Tabela Dinâmica'!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>891.36</c:v>
+                  <c:v>297.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1120.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>153.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.8</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>466.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>737.1</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,47 +1308,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$H$4:$H$9</c:f>
+              <c:f>'Tabela Dinâmica'!$H$4:$H$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Bermuda Masculino</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Bota Masculina</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Camisa Masculina</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Camisa Térmica</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kit de Pinceis de Maquiagem</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sapato Social</c:v>
+                  <c:v>Chinelo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$I$4:$I$9</c:f>
+              <c:f>'Tabela Dinâmica'!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>891.36</c:v>
+                  <c:v>297.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1120.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>153.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.8</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>466.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>737.1</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3111,16 +3159,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>141515</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3135,8 +3183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="740229"/>
-          <a:ext cx="2563586" cy="925285"/>
+          <a:off x="4397828" y="778328"/>
+          <a:ext cx="2209800" cy="908957"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3181,16 +3229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>281214</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>569685</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>21993</xdr:rowOff>
+      <xdr:rowOff>54672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>536032</xdr:colOff>
+      <xdr:colOff>139870</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50750</xdr:rowOff>
+      <xdr:rowOff>56193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3222,8 +3270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4853214" y="762222"/>
-          <a:ext cx="907961" cy="785314"/>
+          <a:off x="4488542" y="794901"/>
+          <a:ext cx="876471" cy="758078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3234,16 +3282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>135254</xdr:rowOff>
+      <xdr:rowOff>141878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>102965</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29357</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>96746</xdr:rowOff>
+      <xdr:rowOff>91303</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3258,8 +3306,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5965372" y="875483"/>
-          <a:ext cx="1322164" cy="331606"/>
+          <a:off x="5421086" y="882107"/>
+          <a:ext cx="1139700" cy="335867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3384,15 +3432,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>457199</xdr:colOff>
+          <xdr:colOff>54427</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>157842</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>370115</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>299357</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>97972</xdr:rowOff>
+          <xdr:rowOff>103414</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3407,7 +3455,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1043"/>
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1062"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3421,7 +3469,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6988628" y="892629"/>
+              <a:off x="6585856" y="898071"/>
               <a:ext cx="3657601" cy="1627414"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3446,16 +3494,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>489856</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>424541</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>107283</xdr:rowOff>
+      <xdr:rowOff>48768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>386774</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>424541</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>90168</xdr:rowOff>
+      <xdr:rowOff>19410</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gráfico Velocímetro'!D14">
       <xdr:nvSpPr>
@@ -3470,8 +3518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6368142" y="1217626"/>
-          <a:ext cx="550061" cy="352999"/>
+          <a:off x="5649684" y="1251639"/>
+          <a:ext cx="653143" cy="340757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3509,7 +3557,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>22</a:t>
+            <a:t>11</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="2400">
             <a:solidFill>
@@ -3524,13 +3572,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>97970</xdr:colOff>
+      <xdr:colOff>97971</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5442</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103414</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3547,8 +3595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057399" y="745671"/>
-          <a:ext cx="2618015" cy="919843"/>
+          <a:off x="2057400" y="778329"/>
+          <a:ext cx="2269672" cy="903514"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3596,11 +3644,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>201385</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38153</xdr:rowOff>
+      <xdr:rowOff>62297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>279332</xdr:colOff>
+      <xdr:colOff>253828</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
@@ -3634,8 +3682,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2160814" y="778382"/>
-          <a:ext cx="731089" cy="692098"/>
+          <a:off x="2160814" y="802526"/>
+          <a:ext cx="705585" cy="667954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3649,11 +3697,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>506185</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>126539</xdr:rowOff>
+      <xdr:rowOff>137125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>534674</xdr:colOff>
+      <xdr:colOff>357074</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
@@ -3670,8 +3718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3118756" y="866768"/>
-          <a:ext cx="1334775" cy="287118"/>
+          <a:off x="3118756" y="877354"/>
+          <a:ext cx="1157175" cy="292860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3706,7 +3754,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Total de Vendas</a:t>
+            <a:t>Total  Vendas</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3718,11 +3766,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>261258</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>80197</xdr:rowOff>
+      <xdr:rowOff>94108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28275</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451704</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>108859</xdr:rowOff>
     </xdr:to>
@@ -3739,8 +3787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2873829" y="1190540"/>
-          <a:ext cx="1726446" cy="398776"/>
+          <a:off x="2873829" y="1220779"/>
+          <a:ext cx="1496732" cy="384866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,7 +3826,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t> R$ 2.331,74 </a:t>
+            <a:t> R$ 1.691,22 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1800">
             <a:solidFill>
@@ -3794,16 +3842,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>168729</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>97972</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>59388</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>146956</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3818,7 +3866,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1044"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1063"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3832,8 +3880,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1959429" y="1866900"/>
-              <a:ext cx="5323114" cy="2220686"/>
+              <a:off x="1763486" y="2111829"/>
+              <a:ext cx="4827331" cy="2013856"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3858,15 +3906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
+      <xdr:colOff>92528</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
+      <xdr:colOff>195943</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3881,7 +3929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2204357" y="4016829"/>
+          <a:off x="2051957" y="4060371"/>
           <a:ext cx="756557" cy="157843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3922,16 +3970,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>604157</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>59872</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>547326</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>54430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>70757</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>59872</xdr:rowOff>
+          <xdr:col>16384</xdr:col>
+          <xdr:colOff>103414</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>163288</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3946,7 +3994,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1045"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3960,8 +4008,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6482443" y="4332515"/>
-              <a:ext cx="5323114" cy="2220686"/>
+              <a:off x="5772469" y="3956959"/>
+              <a:ext cx="5140459" cy="2144486"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3985,16 +4033,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>168730</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>642256</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4009,7 +4057,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6520543" y="6477001"/>
+          <a:off x="5867400" y="6025244"/>
           <a:ext cx="653142" cy="168729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4046,10 +4094,231 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>244930</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>43543</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>359229</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>48986</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Imagem 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BE5180-65EA-1069-9393-D76B8516059E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2857501" y="4501243"/>
+              <a:ext cx="2726871" cy="1856014"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110212</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="13" name="Produto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D37FCC-D215-4A5F-B848-CEAFFDA635A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Produto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="114300" y="3559629"/>
+              <a:ext cx="1828800" cy="2564940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$A$1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888A97CA-93D7-C71C-D024-4579ED63CF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1578429" y="740229"/>
+          <a:ext cx="2177142" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5EBF1B16-97F0-4C19-885F-B43013B493C1}" type="TxLink">
+            <a:rPr lang="en-US" sz="4400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>85%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4287,7 +4556,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>117%</a:t>
+            <a:t>85%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1600"/>
         </a:p>
@@ -4298,7 +4567,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4375,7 +4644,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5070,18 +5339,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96BAF40F-D193-4453-A89D-BD5490F4B4AB}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="66">
-  <location ref="H3:I9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96BAF40F-D193-4453-A89D-BD5490F4B4AB}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="66">
+  <location ref="H3:I8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="9">
-        <item h="1" x="5"/>
+        <item x="5"/>
         <item h="1" x="3"/>
         <item h="1" x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="1"/>
         <item h="1" x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="4"/>
         <item t="default"/>
       </items>
@@ -5117,21 +5386,18 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="15"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -5176,8 +5442,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="9">
@@ -5267,22 +5533,19 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
-      <x v="6"/>
       <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -5303,7 +5566,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="3">
     <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
@@ -5331,13 +5594,13 @@
   <data>
     <tabular pivotCacheId="178555717">
       <items count="8">
-        <i x="5"/>
+        <i x="5" s="1"/>
         <i x="3"/>
         <i x="6"/>
         <i x="7"/>
         <i x="1"/>
         <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="4"/>
       </items>
     </tabular>
@@ -5345,9 +5608,47 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Produto" xr10:uid="{CEDE48DD-4EB5-4CD4-8B6A-DA47C5B11838}" sourceName="Produto">
+  <pivotTables>
+    <pivotTable tabId="4" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="178555717">
+      <items count="18">
+        <i x="3" s="1"/>
+        <i x="5" s="1"/>
+        <i x="2" s="1"/>
+        <i x="17" s="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Vendedor" xr10:uid="{3B59B178-69D6-41A5-B9F2-FF96B8EC448E}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="245835"/>
+  <slicer name="Produto" xr10:uid="{58C48D6D-162E-4AFC-8C97-95F321BED319}" cache="SegmentaçãodeDados_Produto" caption="Produto" rowHeight="245835"/>
 </slicers>
 </file>
 
@@ -5360,7 +5661,7 @@
     <tableColumn id="3" xr3:uid="{D9976CEF-183E-40DF-B5B6-3A396F73E430}" name="Produto"/>
     <tableColumn id="4" xr3:uid="{4878D333-1636-456E-B543-3F788A40F544}" name="Valor Unitário"/>
     <tableColumn id="5" xr3:uid="{C8C37038-F89A-47CB-A9CD-41978FFE9777}" name="Unidades Vendidas"/>
-    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5663,108 +5964,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
-  <dimension ref="G5:N26"/>
+  <dimension ref="A2:O51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="12" max="12" width="6.84375" customWidth="1"/>
-    <col min="13" max="13" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="9.23046875" customWidth="1"/>
+    <col min="12" max="12" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3828125" customWidth="1"/>
     <col min="14" max="14" width="12.23046875" customWidth="1"/>
-    <col min="15" max="15" width="11.3828125" customWidth="1"/>
+    <col min="15" max="15" width="11.3828125" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.23046875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:14" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="M5" s="10" t="s">
+    <row r="2" spans="1:14" ht="30.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" ht="4.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="L5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="M5" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G9" s="4"/>
     </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.4">
-      <c r="M15" s="8" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="7:14" x14ac:dyDescent="0.4">
-      <c r="M16" t="str">
-        <f t="array" ref="M16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A1)),2),"")</f>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L16" t="str">
+        <f t="array" ref="L16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A1)),2),"")</f>
         <v>Bermuda Masculino</v>
       </c>
-      <c r="N16" s="5">
-        <f t="array" ref="N16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B1)),5),"")</f>
-        <v>891.36</v>
-      </c>
-    </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.4">
-      <c r="M17" t="str">
-        <f t="array" ref="M17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A2)),2),"")</f>
+      <c r="M16" s="5">
+        <f t="array" ref="M16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B1)),5),"")</f>
+        <v>297.12</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L17" t="str">
+        <f t="array" ref="L17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A2)),2),"")</f>
+        <v>Bota Masculina</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="array" ref="M17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B2)),5),"")</f>
+        <v>1120.6999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L18" t="str">
+        <f t="array" ref="L18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A3)),2),"")</f>
         <v>Camisa Masculina</v>
       </c>
-      <c r="N17" s="5">
-        <f t="array" ref="N17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B2)),5),"")</f>
+      <c r="M18" s="5">
+        <f t="array" ref="M18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B3)),5),"")</f>
         <v>153.4</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.4">
-      <c r="M18" t="str">
-        <f t="array" ref="M18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A3)),2),"")</f>
-        <v>Camisa Térmica</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="array" ref="N18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B3)),5),"")</f>
-        <v>83.8</v>
-      </c>
-    </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.4">
-      <c r="M19" t="str">
-        <f t="array" ref="M19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A4)),2),"")</f>
-        <v>Kit de Pinceis de Maquiagem</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="array" ref="N19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B4)),5),"")</f>
-        <v>466.08</v>
-      </c>
-    </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.4">
-      <c r="M20" t="str">
-        <f t="array" ref="M20">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A5)),2),"")</f>
-        <v>Sapato Social</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="array" ref="N20">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B5)),5),"")</f>
-        <v>737.1</v>
-      </c>
-    </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.4">
-      <c r="M21" t="str">
-        <f t="array" ref="M21">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A6)),2),"")</f>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L19" t="str">
+        <f t="array" ref="L19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A4)),2),"")</f>
+        <v>Chinelo</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="array" ref="M19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B4)),5),"")</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L20" t="str">
+        <f t="array" ref="L20">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A5)),2),"")</f>
         <v/>
       </c>
-      <c r="N21" s="5" t="str">
-        <f t="array" ref="N21">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B6)),5),"")</f>
+      <c r="M20" s="5" t="str">
+        <f t="array" ref="M20">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B5)),5),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.4">
-      <c r="M22" t="str">
-        <f t="array" ref="M22">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A7)),2),"")</f>
+    <row r="21" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L21" t="str">
+        <f t="array" ref="L21">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A6)),2),"")</f>
         <v/>
       </c>
-      <c r="N22" s="5" t="str">
-        <f t="array" ref="N22">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B7)),5),"")</f>
+      <c r="M21" s="5" t="str">
+        <f t="array" ref="M21">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B6)),5),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L22" t="str">
+        <f t="array" ref="L22">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A7)),2),"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f t="array" ref="M22">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B7)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L23" t="str">
+        <f t="array" ref="L23">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A8)),2),"")</f>
+        <v/>
+      </c>
       <c r="M23" t="str">
         <f t="array" ref="M23">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A8)),2),"")</f>
         <v/>
@@ -5774,7 +6115,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M24" t="str">
         <f t="array" ref="M24">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A9)),2),"")</f>
         <v/>
@@ -5784,7 +6125,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M25" t="str">
         <f t="array" ref="M25">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A10)),2),"")</f>
         <v/>
@@ -5794,7 +6135,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M26" t="str">
         <f t="array" ref="M26">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A11)),2),"")</f>
         <v/>
@@ -5804,9 +6145,29 @@
         <v/>
       </c>
     </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M5:N5"/>
+  <mergeCells count="2">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -5822,11 +6183,461 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57911574-0E88-4758-8733-4AB89E60000F}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="12" width="3.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="13">
+        <f>'Gráfico Velocímetro'!D11</f>
+        <v>0.84560999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="15">
+        <f t="shared" ref="C4:C11" si="0">C5+10/100</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D11" si="1">D5+10/100</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" ref="E4:E11" si="2">E5+10/100</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F11" si="3">F5+10/100</f>
+        <v>0.94</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:G11" si="4">G5+10/100</f>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4:H11" si="5">H5+10/100</f>
+        <v>0.95999999999999985</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4:I11" si="6">I5+10/100</f>
+        <v>0.96999999999999986</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J11" si="7">J5+10/100</f>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4:K11" si="8">K5+10/100</f>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4:L11" si="9">L5+10/100</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.82</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="2"/>
+        <v>0.83</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="4"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="5"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="6"/>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="7"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="8"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="9"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="2"/>
+        <v>0.73</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="3"/>
+        <v>0.74</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="4"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="5"/>
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="6"/>
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="7"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="8"/>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="5"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="6"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="7"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="8"/>
+        <v>0.69</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="4"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="5"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="6"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="7"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="8"/>
+        <v>0.59</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="4"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="6"/>
+        <v>0.47</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="7"/>
+        <v>0.48</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="8"/>
+        <v>0.49</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="3"/>
+        <v>0.34</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="7"/>
+        <v>0.38</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="8"/>
+        <v>0.39</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="6"/>
+        <v>0.27</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="7"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="8"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C12" s="15">
+        <f>C13+10/100</f>
+        <v>0.11</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" ref="D12:L12" si="10">D13+10/100</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.13</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.16</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.17</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.18</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.19</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C13" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="16">
+        <f>C13+1/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:L13" si="11">D13+1/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="11"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="11"/>
+        <v>0.08</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="11"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:L13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0</formula>
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8652933-C170-41DA-A432-E2948A22B9AF}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:K12"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5898,11 +6709,11 @@
       </c>
       <c r="B11" s="5">
         <f>SUM('Tabela Dinâmica'!E:E)/2</f>
-        <v>2331.7399999999998</v>
+        <v>1691.2199999999998</v>
       </c>
       <c r="D11" s="7">
         <f>B11/B6</f>
-        <v>1.16587</v>
+        <v>0.84560999999999986</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -5919,7 +6730,7 @@
       </c>
       <c r="B13" s="6">
         <f>B6*2-(B11+B12)</f>
-        <v>1618.2600000000002</v>
+        <v>2258.7800000000002</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -5928,7 +6739,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14">
         <f>SUM('Tabela Dinâmica'!C:C)/2</f>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5937,22 +6748,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.53515625" customWidth="1"/>
     <col min="4" max="4" width="20.23046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.3046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5961,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5989,137 +6800,114 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
         <v>148.56</v>
       </c>
-      <c r="E4" s="12">
-        <v>891.36</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="14">
+        <v>297.12</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12">
-        <v>891.36</v>
+      <c r="I4" s="14">
+        <v>297.12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>153.4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>153.4</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="12">
-        <v>153.4</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>448.28</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1120.6999999999998</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1120.6999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12">
-        <v>41.9</v>
-      </c>
-      <c r="E6" s="12">
-        <v>83.8</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="12">
-        <v>83.8</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>153.4</v>
+      </c>
+      <c r="E6" s="14">
+        <v>153.4</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="14">
+        <v>153.4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12">
-        <v>233.04</v>
-      </c>
-      <c r="E7" s="12">
-        <v>466.08</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="12">
-        <v>466.08</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14">
+        <v>40</v>
+      </c>
+      <c r="E7" s="14">
+        <v>120</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="14">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="E8" s="12">
-        <v>737.1</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="12">
-        <v>737.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="12">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12">
-        <v>658.8</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2331.7399999999998</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="C8" s="14">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14">
+        <v>790.2399999999999</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1691.2199999999998</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="12">
-        <v>2331.7399999999998</v>
+      <c r="I8" s="14">
+        <v>1691.2199999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D83A1-064B-4E78-A12C-77460512D36D}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -6911,7 +7699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832D018E-27A5-47D7-86DC-3AE7E0B9AE2B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -7111,7 +7899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED254783-62DB-4498-A16A-461FBCC364DE}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -2,24 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AD66E-5B66-4647-9CC1-52938B92BCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB7DCB6-2A6A-4D0F-8CC6-92E9A8332910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" firstSheet="2" activeTab="2" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dash Vendedores" sheetId="5" r:id="rId1"/>
-    <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId2"/>
-    <sheet name="Gráfico Velocímetro" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="Tabela Dinâmica" sheetId="4" r:id="rId4"/>
-    <sheet name="Vendas" sheetId="1" r:id="rId5"/>
-    <sheet name="Dados Vendedor" sheetId="2" r:id="rId6"/>
-    <sheet name="Imagens" sheetId="3" r:id="rId7"/>
+    <sheet name="Tabela Dinâmica Dados Vend" sheetId="8" r:id="rId2"/>
+    <sheet name="Gráfico Masc &amp; Fem" sheetId="9" r:id="rId3"/>
+    <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Gráfico Velocímetro" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Tabela Dinâmica" sheetId="4" r:id="rId6"/>
+    <sheet name="Vendas" sheetId="1" r:id="rId7"/>
+    <sheet name="Dados Vendedor" sheetId="2" r:id="rId8"/>
+    <sheet name="Imagens" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
@@ -27,13 +29,14 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="9" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
-        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="70">
   <si>
     <t>Vendedor</t>
   </si>
@@ -234,14 +237,39 @@
   <si>
     <t>DASHBOARD TOTAL VENDAS POR VENDEDOR</t>
   </si>
+  <si>
+    <t xml:space="preserve">Soma de  Vendas </t>
+  </si>
+  <si>
+    <t>Soma de Quantidade</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
+  <si>
+    <t>Vendas Femininas</t>
+  </si>
+  <si>
+    <t>Atual</t>
+  </si>
+  <si>
+    <t>Vendas Masculinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendas </t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -372,18 +400,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -391,7 +419,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="0.39994506668294322"/>
@@ -407,6 +438,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -419,6 +455,256 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:pictureOptions>
+              <c:pictureFormat val="stackScale"/>
+            </c:pictureOptions>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E885-40C2-867E-27A9064588B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.49530408569056911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E885-40C2-867E-27A9064588B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E885-40C2-867E-27A9064588B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E885-40C2-867E-27A9064588B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="100"/>
+        <c:axId val="705961344"/>
+        <c:axId val="705958104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="705961344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="705958104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705958104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="705961344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -814,7 +1100,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1136,7 +1422,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1612,8 +1898,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1670,7 +1996,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1721,6 +2047,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050">
         <a:solidFill>
@@ -2131,7 +2960,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2652,7 +3481,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3455,7 +4284,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1062"/>
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1078"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3866,7 +4695,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1063"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1079"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3994,7 +4823,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1064"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1080"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4122,7 +4951,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1065"/>
+                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1081"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4172,8 +5001,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>110212</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Produto">
@@ -4196,7 +5025,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4241,6 +5070,153 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159204</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Mulher">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FF4460-CBE5-4971-824F-3AA00D12BC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1279071"/>
+          <a:ext cx="2140404" cy="2207986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273504</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Mulher">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25DC098-A635-4699-B241-2F4B89B4BA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1420586" y="1191986"/>
+          <a:ext cx="2140404" cy="2207986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>307521</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307521</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04A2B63-324B-D30F-7762-F2D10454EFA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4318,7 +5294,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4567,7 +5543,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4644,7 +5620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4755,15 +5731,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
+      <xdr:colOff>637267</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>155122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165099</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>142422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4795,8 +5771,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651125" y="361950"/>
-          <a:ext cx="2009775" cy="2273300"/>
+          <a:off x="3249838" y="340179"/>
+          <a:ext cx="2140404" cy="2207986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5032,6 +6008,59 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition pivotCacheId="178555717"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rodrigo Costa" refreshedDate="45470.771498726848" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{7085FA3D-B36A-4749-ABC1-E5748A765534}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Loja" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Santa Catarina"/>
+        <s v="São Paulo"/>
+        <s v="Rio de Janeiro"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Loja2" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Santa Catarina"/>
+        <s v="São Paulo"/>
+        <s v="Rio de Janeiro"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Amanda Martins"/>
+        <s v="Angela Maria"/>
+        <s v="Carlos Moreira"/>
+        <s v="Eliane Moreira"/>
+        <s v="Aline Rosa"/>
+        <s v="Leonardo Almeida"/>
+        <s v="Nicolas Pereira"/>
+        <s v="Paulo Santos"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sexo" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Feminino"/>
+        <s v="Masculino"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quantidade" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="20"/>
+    </cacheField>
+    <cacheField name=" Vendas " numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="559.35" maxValue="2331.7399999999998"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -5338,7 +6367,223 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="1956.14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="559.35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="969.99"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="1754.24"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="1691.22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="1817.51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="2331.7399999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="954.74"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23135FB5-E097-4B54-99E5-7A7F19126E04}" name="Tabela dinâmica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:E13" firstHeaderRow="0" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="8" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Soma de Quantidade" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de  Vendas " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96BAF40F-D193-4453-A89D-BD5490F4B4AB}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="66">
   <location ref="H3:I8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5441,7 +6686,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
@@ -5661,7 +6906,22 @@
     <tableColumn id="3" xr3:uid="{D9976CEF-183E-40DF-B5B6-3A396F73E430}" name="Produto"/>
     <tableColumn id="4" xr3:uid="{4878D333-1636-456E-B543-3F788A40F544}" name="Valor Unitário"/>
     <tableColumn id="5" xr3:uid="{C8C37038-F89A-47CB-A9CD-41978FFE9777}" name="Unidades Vendidas"/>
-    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CF39B63-EBA2-4093-8CC1-97544390FA18}" name="Tabela2" displayName="Tabela2" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{3CF39B63-EBA2-4093-8CC1-97544390FA18}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{57BECED9-E329-4469-A8FA-B8F1376EFF73}" name="Loja"/>
+    <tableColumn id="2" xr3:uid="{66FDA612-7D31-4353-A796-7BA699FE23B0}" name="Loja2"/>
+    <tableColumn id="3" xr3:uid="{85C82338-F9DF-4BE1-B996-4B4B0AFB742A}" name="Vendedor"/>
+    <tableColumn id="4" xr3:uid="{4B48B585-DDFE-438A-A620-8AC5E457EAAA}" name="Sexo"/>
+    <tableColumn id="5" xr3:uid="{AB7F2C5B-E3F6-4655-8C3A-7852ACE1D217}" name="Quantidade"/>
+    <tableColumn id="6" xr3:uid="{A318C003-5DB5-438C-97E2-65A7F2733E10}" name=" Vendas " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5966,7 +7226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
   <dimension ref="A2:O51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -5981,44 +7241,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="30.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="4.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="4.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G9" s="4"/>
@@ -6183,6 +7443,270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAAF423-A4C5-4D57-86BF-096FFB0AD703}">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1691.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="17">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2331.7399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17">
+        <v>16</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1956.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="17">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1754.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="17">
+        <v>12</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1817.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="17">
+        <v>8</v>
+      </c>
+      <c r="E10" s="17">
+        <v>559.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="17">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17">
+        <v>969.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="17">
+        <v>20</v>
+      </c>
+      <c r="E12" s="17">
+        <v>954.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="17">
+        <v>103</v>
+      </c>
+      <c r="E13" s="17">
+        <v>12034.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D4DCA3-B20F-4218-BB58-2B1DA478837D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="18">
+        <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Feminino",'Tabela Dinâmica Dados Vend'!E:E)/D2</f>
+        <v>0.49530408569056911</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>SUM('Tabela Dinâmica Dados Vend'!E:E)/2</f>
+        <v>12034.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="18">
+        <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Masculino",'Tabela Dinâmica Dados Vend'!E:E)/D2</f>
+        <v>0.50469591430943095</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57911574-0E88-4758-8733-4AB89E60000F}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -6196,433 +7720,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="13">
+      <c r="A1" s="12">
         <f>'Gráfico Velocímetro'!D11</f>
         <v>0.84560999999999986</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <f t="shared" ref="C4:C11" si="0">C5+10/100</f>
         <v>0.90999999999999992</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <f t="shared" ref="D4:D11" si="1">D5+10/100</f>
         <v>0.91999999999999993</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f t="shared" ref="E4:E11" si="2">E5+10/100</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f t="shared" ref="F4:F11" si="3">F5+10/100</f>
         <v>0.94</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f t="shared" ref="G4:G11" si="4">G5+10/100</f>
         <v>0.94999999999999984</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <f t="shared" ref="H4:H11" si="5">H5+10/100</f>
         <v>0.95999999999999985</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <f t="shared" ref="I4:I11" si="6">I5+10/100</f>
         <v>0.96999999999999986</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f t="shared" ref="J4:J11" si="7">J5+10/100</f>
         <v>0.97999999999999987</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K11" si="8">K5+10/100</f>
         <v>0.98999999999999988</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f t="shared" ref="L4:L11" si="9">L5+10/100</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>0.80999999999999994</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <f t="shared" si="1"/>
         <v>0.82</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <f t="shared" si="2"/>
         <v>0.83</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f t="shared" si="4"/>
         <v>0.84999999999999987</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <f t="shared" si="5"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f t="shared" si="6"/>
         <v>0.86999999999999988</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f t="shared" si="7"/>
         <v>0.87999999999999989</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f t="shared" si="8"/>
         <v>0.8899999999999999</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <f t="shared" si="2"/>
         <v>0.73</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f t="shared" si="3"/>
         <v>0.74</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <f t="shared" si="4"/>
         <v>0.74999999999999989</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <f t="shared" si="5"/>
         <v>0.7599999999999999</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <f t="shared" si="6"/>
         <v>0.76999999999999991</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <f t="shared" si="7"/>
         <v>0.77999999999999992</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <f t="shared" si="8"/>
         <v>0.78999999999999992</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f t="shared" si="9"/>
         <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <f t="shared" si="1"/>
         <v>0.62</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f t="shared" si="4"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <f t="shared" si="5"/>
         <v>0.65999999999999992</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <f t="shared" si="6"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <f t="shared" si="7"/>
         <v>0.67999999999999994</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <f t="shared" si="8"/>
         <v>0.69</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="2"/>
         <v>0.53</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <f t="shared" si="4"/>
         <v>0.54999999999999993</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <f t="shared" si="5"/>
         <v>0.55999999999999994</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <f t="shared" si="6"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <f t="shared" si="7"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <f t="shared" si="8"/>
         <v>0.59</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <f t="shared" si="1"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <f t="shared" si="2"/>
         <v>0.43000000000000005</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f t="shared" si="3"/>
         <v>0.44000000000000006</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <f t="shared" si="5"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f t="shared" si="7"/>
         <v>0.48</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f t="shared" si="8"/>
         <v>0.49</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <f t="shared" si="1"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <f t="shared" si="6"/>
         <v>0.37</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <f t="shared" si="7"/>
         <v>0.38</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <f t="shared" si="8"/>
         <v>0.39</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <f t="shared" si="1"/>
         <v>0.22000000000000003</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <f t="shared" si="2"/>
         <v>0.23</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <f t="shared" si="3"/>
         <v>0.24000000000000002</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <f t="shared" si="6"/>
         <v>0.27</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <f t="shared" si="8"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <f>C13+10/100</f>
         <v>0.11</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <f t="shared" ref="D12:L12" si="10">D13+10/100</f>
         <v>0.12000000000000001</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <f t="shared" si="10"/>
         <v>0.13</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <f t="shared" si="10"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <f t="shared" si="10"/>
         <v>0.17</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <f t="shared" si="10"/>
         <v>0.19</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>0.01</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <f>C13+1/100</f>
         <v>0.02</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <f t="shared" ref="E13:L13" si="11">D13+1/100</f>
         <v>0.03</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <f t="shared" si="11"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="13">
         <f t="shared" si="11"/>
         <v>0.09</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="13">
         <f t="shared" si="11"/>
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:L13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
       <formula>0</formula>
       <formula>$A$1</formula>
     </cfRule>
@@ -6632,7 +8156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8652933-C170-41DA-A432-E2948A22B9AF}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -6748,7 +8272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -6805,19 +8329,19 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4">
         <v>148.56</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4">
         <v>297.12</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4">
         <v>297.12</v>
       </c>
     </row>
@@ -6828,19 +8352,19 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5">
         <v>448.28</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <v>1120.6999999999998</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5">
         <v>1120.6999999999998</v>
       </c>
     </row>
@@ -6851,19 +8375,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6">
         <v>153.4</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6">
         <v>153.4</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6">
         <v>153.4</v>
       </c>
     </row>
@@ -6874,19 +8398,19 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7">
         <v>40</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7">
         <v>120</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7">
         <v>120</v>
       </c>
     </row>
@@ -6894,19 +8418,19 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8">
         <v>790.2399999999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8">
         <v>1691.2199999999998</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8">
         <v>1691.2199999999998</v>
       </c>
     </row>
@@ -6916,7 +8440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D83A1-064B-4E78-A12C-77460512D36D}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -7699,7 +9223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832D018E-27A5-47D7-86DC-3AE7E0B9AE2B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -7710,7 +9234,7 @@
     <col min="1" max="2" width="13.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3828125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" customWidth="1"/>
     <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7896,15 +9420,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED254783-62DB-4498-A16A-461FBCC364DE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -8,35 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB7DCB6-2A6A-4D0F-8CC6-92E9A8332910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5AD1A2-EACF-4B0B-A5C2-147F77DA6411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" firstSheet="2" activeTab="2" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="685" activeTab="1" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dash Vendedores" sheetId="5" r:id="rId1"/>
-    <sheet name="Tabela Dinâmica Dados Vend" sheetId="8" r:id="rId2"/>
-    <sheet name="Gráfico Masc &amp; Fem" sheetId="9" r:id="rId3"/>
-    <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="Gráfico Velocímetro" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="Tabela Dinâmica" sheetId="4" r:id="rId6"/>
-    <sheet name="Vendas" sheetId="1" r:id="rId7"/>
-    <sheet name="Dados Vendedor" sheetId="2" r:id="rId8"/>
-    <sheet name="Imagens" sheetId="3" r:id="rId9"/>
+    <sheet name="Dash Funcionários" sheetId="5" r:id="rId1"/>
+    <sheet name="Dash Escritórios" sheetId="10" r:id="rId2"/>
+    <sheet name="Tabela Dinâmica Dados Vend" sheetId="8" r:id="rId3"/>
+    <sheet name="Gráfico Masc &amp; Fem" sheetId="9" r:id="rId4"/>
+    <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Gráfico Velocímetro" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Tabela Dinâmica" sheetId="4" r:id="rId7"/>
+    <sheet name="Vendas" sheetId="1" r:id="rId8"/>
+    <sheet name="Dados Vendedor" sheetId="2" r:id="rId9"/>
+    <sheet name="Imagens" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="SegmentaçãodeDados_Loja">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="9" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId12"/>
         <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="70">
   <si>
     <t>Vendedor</t>
   </si>
@@ -244,9 +247,6 @@
     <t>Soma de Quantidade</t>
   </si>
   <si>
-    <t>(Tudo)</t>
-  </si>
-  <si>
     <t>Vendas Femininas</t>
   </si>
   <si>
@@ -261,6 +261,9 @@
   <si>
     <t>Vendas</t>
   </si>
+  <si>
+    <t>Qtd</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +272,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -337,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -375,6 +378,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -382,7 +400,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -404,6 +422,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,7 +430,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -421,9 +455,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
@@ -432,6 +463,9 @@
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
@@ -531,7 +565,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.49530408569056911</c:v>
+                  <c:v>0.22517390744259447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,16 +706,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -705,6 +732,249 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:pictureOptions>
+              <c:pictureFormat val="stackScale"/>
+            </c:pictureOptions>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8CE8-4FBE-A5F9-CFE048B9BB1F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.77482609255740564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CE8-4FBE-A5F9-CFE048B9BB1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8CE8-4FBE-A5F9-CFE048B9BB1F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Masc &amp; Fem'!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CE8-4FBE-A5F9-CFE048B9BB1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="100"/>
+        <c:axId val="858245072"/>
+        <c:axId val="858245432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="858245072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="858245432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858245432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="858245072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1100,7 +1370,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1422,7 +1692,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1938,6 +2208,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2442,7 +2752,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2499,7 +2809,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2550,6 +2860,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050">
         <a:solidFill>
@@ -2960,7 +3773,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3481,7 +4294,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4284,7 +5097,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1078"/>
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1090"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4695,7 +5508,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1079"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1091"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4823,7 +5636,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1080"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1092"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4951,7 +5764,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1081"/>
+                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1093"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5070,6 +5883,364 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>223158</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228601</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>157843</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Imagem 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF29204-E715-2193-7D53-0F3D86447B7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$10:$J$22" spid="_x0000_s7175"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="223158" y="337457"/>
+              <a:ext cx="2618014" cy="2411186"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>168729</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>5443</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>174172</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>10886</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Imagem 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798C64CF-692E-6C95-EB6B-D3C547CDA97C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$25:$J$37" spid="_x0000_s7176"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="168729" y="3336472"/>
+              <a:ext cx="2618014" cy="2411185"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121097</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Loja">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B2183C-F7BF-4926-B498-D748D523C257}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Loja"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="136071" y="5883728"/>
+              <a:ext cx="1828800" cy="2564940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Gráfico Masc &amp; Fem'!B2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BED48C6-04B9-1379-1B97-BF20F6DDF7D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1888673" y="326571"/>
+          <a:ext cx="1094013" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{E96247CC-111D-4571-BC2B-2962A0C99AB5}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>22,5%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>615042</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>402770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Gráfico Masc &amp; Fem'!B5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C87B22A-71F8-445F-A61C-339C90ADE841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1921328" y="3418114"/>
+          <a:ext cx="1094013" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{E7F89851-824E-4661-B994-2B41F7E2FA70}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>77,5%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="6000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5213,10 +6384,152 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>334735</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>334735</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B6C4D3-C041-3C0C-8E0D-EBB3E8CE0F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>794656</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>20541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Gráfico 5" descr="Homem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114764C5-4650-4479-BDCA-C4719CB68150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130628" y="3940600"/>
+          <a:ext cx="1823357" cy="2186827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Gráfico 6" descr="Homem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE06853-40D7-41D2-9F8C-FF3C44EF9BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1464129" y="3935186"/>
+          <a:ext cx="1823357" cy="2186827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5294,7 +6607,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5543,7 +6856,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5620,7 +6933,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6060,7 +7373,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1368286870"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6437,8 +7750,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23135FB5-E097-4B54-99E5-7A7F19126E04}" name="Tabela dinâmica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:E13" firstHeaderRow="0" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23135FB5-E097-4B54-99E5-7A7F19126E04}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="4">
@@ -6513,29 +7826,7 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="1"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x v="2"/>
       <x v="2"/>
@@ -6565,7 +7856,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
+    <pageField fld="0" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Soma de Quantidade" fld="4" baseField="0" baseItem="0"/>
@@ -6890,10 +8181,33 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Loja" xr10:uid="{BCF0BDD3-D1CB-4EB3-9B6D-926F1FF8BEF6}" sourceName="Loja">
+  <pivotTables>
+    <pivotTable tabId="8" name="Tabela dinâmica2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1368286870">
+      <items count="3">
+        <i x="2"/>
+        <i x="0"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Vendedor" xr10:uid="{3B59B178-69D6-41A5-B9F2-FF96B8EC448E}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="245835"/>
   <slicer name="Produto" xr10:uid="{58C48D6D-162E-4AFC-8C97-95F321BED319}" cache="SegmentaçãodeDados_Produto" caption="Produto" rowHeight="245835"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Loja" xr10:uid="{77BBD390-CFAC-47B7-BA7B-5AE1C869623D}" cache="SegmentaçãodeDados_Loja" caption="Loja" rowHeight="245835"/>
 </slicers>
 </file>
 
@@ -6921,7 +8235,7 @@
     <tableColumn id="3" xr3:uid="{85C82338-F9DF-4BE1-B996-4B4B0AFB742A}" name="Vendedor"/>
     <tableColumn id="4" xr3:uid="{4B48B585-DDFE-438A-A620-8AC5E457EAAA}" name="Sexo"/>
     <tableColumn id="5" xr3:uid="{AB7F2C5B-E3F6-4655-8C3A-7852ACE1D217}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{A318C003-5DB5-438C-97E2-65A7F2733E10}" name=" Vendas " dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A318C003-5DB5-438C-97E2-65A7F2733E10}" name=" Vendas " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7224,7 +8538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
-  <dimension ref="A2:O51"/>
+  <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -7241,22 +8555,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="30.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" ht="4.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
@@ -7275,10 +8589,10 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G9" s="4"/>
@@ -7405,25 +8719,6 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L5:M5"/>
@@ -7442,12 +8737,327 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAAF423-A4C5-4D57-86BF-096FFB0AD703}">
-  <dimension ref="A2:E13"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED254783-62DB-4498-A16A-461FBCC364DE}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD65075-1C9C-4B2D-93F9-C1BE430832A9}">
+  <dimension ref="B1:H23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3828125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.15234375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B1" s="20">
+        <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Feminino",'Tabela Dinâmica Dados Vend'!E:E)</f>
+        <v>559.35</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F5" s="23" t="str">
+        <f t="array" ref="F5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A1)),2),"")</f>
+        <v>Angela Maria</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="array" ref="G5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B1)),4),"")</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="array" ref="H5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C1)),5),"")</f>
+        <v>559.35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F6" s="23" t="str">
+        <f t="array" ref="F6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A2)),2),"")</f>
+        <v>Carlos Moreira</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="array" ref="G6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B2)),4),"")</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="array" ref="H6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C2)),5),"")</f>
+        <v>969.99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F7" s="23" t="str">
+        <f t="array" ref="F7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A3)),2),"")</f>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="array" ref="G7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B3)),4),"")</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="array" ref="H7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C3)),5),"")</f>
+        <v>954.74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F8" s="23" t="str">
+        <f t="array" ref="F8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A4)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="26" t="str">
+        <f t="array" ref="G8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B4)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f t="array" ref="H8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C4)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F9" s="23" t="str">
+        <f t="array" ref="F9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A5)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="26" t="str">
+        <f t="array" ref="G9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B5)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f t="array" ref="H9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C5)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F10" s="23" t="str">
+        <f t="array" ref="F10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A6)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="26" t="str">
+        <f t="array" ref="G10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B6)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f t="array" ref="H10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C6)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F11" s="23" t="str">
+        <f t="array" ref="F11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A7)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="26" t="str">
+        <f t="array" ref="G11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B7)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="array" ref="H11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C7)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F12" s="23" t="str">
+        <f t="array" ref="F12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A8)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="26" t="str">
+        <f t="array" ref="G12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B8)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f t="array" ref="H12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C8)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F13" s="23" t="str">
+        <f t="array" ref="F13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A9)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="26" t="str">
+        <f t="array" ref="G13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B9)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="24" t="str">
+        <f t="array" ref="H13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C9)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F14" s="23" t="str">
+        <f t="array" ref="F14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A10)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="26" t="str">
+        <f t="array" ref="G14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B10)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="24" t="str">
+        <f t="array" ref="H14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C10)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F15" s="23" t="str">
+        <f t="array" ref="F15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A11)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="26" t="str">
+        <f t="array" ref="G15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B11)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="24" t="str">
+        <f t="array" ref="H15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C11)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F16" s="23" t="str">
+        <f t="array" ref="F16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A12)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="26" t="str">
+        <f t="array" ref="G16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B12)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="24" t="str">
+        <f t="array" ref="H16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C12)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="19">
+        <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Masculino",'Tabela Dinâmica Dados Vend'!E:E)</f>
+        <v>1924.73</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="F17" s="23" t="str">
+        <f t="array" ref="F17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A13)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="26" t="str">
+        <f t="array" ref="G17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B13)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="24" t="str">
+        <f t="array" ref="H17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C13)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F18" s="23" t="str">
+        <f t="array" ref="F18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A14)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="26" t="str">
+        <f t="array" ref="G18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B14)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="24" t="str">
+        <f t="array" ref="H18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C14)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F19" s="23" t="str">
+        <f t="array" ref="F19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A15)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="26" t="str">
+        <f t="array" ref="G19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B15)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="24" t="str">
+        <f t="array" ref="H19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C15)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F20" s="23" t="str">
+        <f t="array" ref="F20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A16)),2),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="26" t="str">
+        <f t="array" ref="G20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B16)),4),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="24" t="str">
+        <f t="array" ref="H20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C16)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F21" s="23"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="26">
+        <f>SUM(G5:G21)</f>
+        <v>34</v>
+      </c>
+      <c r="H23" s="24">
+        <f>SUM(H5:H21)</f>
+        <v>2484.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAAF423-A4C5-4D57-86BF-096FFB0AD703}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A1048532" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7464,7 +9074,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -7486,149 +9096,64 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17">
-        <v>7</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1691.22</v>
+      <c r="D5" s="18">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18">
+        <v>559.35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="17">
-        <v>16</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2331.7399999999998</v>
+      <c r="D6" s="18">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
+        <v>969.99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="17">
-        <v>16</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1956.14</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18">
+        <v>954.74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="17">
-        <v>18</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1754.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="17">
-        <v>12</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1817.51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="17">
-        <v>8</v>
-      </c>
-      <c r="E10" s="17">
-        <v>559.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="17">
-        <v>6</v>
-      </c>
-      <c r="E11" s="17">
-        <v>969.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="17">
-        <v>20</v>
-      </c>
-      <c r="E12" s="17">
-        <v>954.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="17">
-        <v>103</v>
-      </c>
-      <c r="E13" s="17">
-        <v>12034.93</v>
+      <c r="D8" s="18">
+        <v>34</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2484.08</v>
       </c>
     </row>
   </sheetData>
@@ -7636,12 +9161,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D4DCA3-B20F-4218-BB58-2B1DA478837D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7652,10 +9177,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7663,26 +9188,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="18">
+        <v>67</v>
+      </c>
+      <c r="B2" s="15">
         <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Feminino",'Tabela Dinâmica Dados Vend'!E:E)/D2</f>
-        <v>0.49530408569056911</v>
+        <v>0.22517390744259447</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2">
         <f>SUM('Tabela Dinâmica Dados Vend'!E:E)/2</f>
-        <v>12034.93</v>
+        <v>2484.08</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -7690,11 +9215,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="18">
+        <v>68</v>
+      </c>
+      <c r="B5" s="15">
         <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Masculino",'Tabela Dinâmica Dados Vend'!E:E)/D2</f>
-        <v>0.50469591430943095</v>
+        <v>0.77482609255740564</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -7706,7 +9231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57911574-0E88-4758-8733-4AB89E60000F}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -8146,7 +9671,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:L13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0</formula>
       <formula>$A$1</formula>
     </cfRule>
@@ -8156,7 +9681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8652933-C170-41DA-A432-E2948A22B9AF}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -8272,7 +9797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -8440,7 +9965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D83A1-064B-4E78-A12C-77460512D36D}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -9223,7 +10748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832D018E-27A5-47D7-86DC-3AE7E0B9AE2B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -9424,19 +10949,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED254783-62DB-4498-A16A-461FBCC364DE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5AD1A2-EACF-4B0B-A5C2-147F77DA6411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8964B556-4F38-40A8-B975-99A8CB15986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="685" activeTab="1" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="685" firstSheet="1" activeTab="1" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dash Funcionários" sheetId="5" r:id="rId1"/>
@@ -27,12 +27,13 @@
   <definedNames>
     <definedName name="SegmentaçãodeDados_Loja">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Sexo">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -40,6 +41,7 @@
         <x14:slicerCache r:id="rId13"/>
         <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
   <si>
     <t>Vendedor</t>
   </si>
@@ -269,10 +271,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -400,7 +403,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -423,19 +426,6 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -446,6 +436,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -453,7 +457,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="0.39994506668294322"/>
@@ -489,6 +535,382 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[077_Dashboard+Dados.xlsx]Tabela Dinâmica Dados Vend!Tabela dinâmica3</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="picture"/>
+          <c:spPr>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica Dados Vend'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica Dados Vend'!$I$5:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angela Maria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carlos Moreira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paulo Santos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica Dados Vend'!$J$5:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>559.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>969.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>954.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59E7-4CFC-8453-9997FC05E766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="703494792"/>
+        <c:axId val="703496592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="703494792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703496592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703496592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00_ ;[Red]\-#,##0.00\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="703494792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -731,7 +1153,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -974,7 +1396,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1370,7 +1792,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1692,7 +2114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2248,8 +2670,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3255,7 +3717,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3312,7 +3774,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3363,6 +3825,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050">
         <a:solidFill>
@@ -3773,7 +4738,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4294,7 +5259,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5097,7 +6062,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1090"/>
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1106"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5508,7 +6473,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1091"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1107"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5636,7 +6601,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1092"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1108"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5764,7 +6729,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1093"/>
+                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1109"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5912,7 +6877,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$10:$J$22" spid="_x0000_s7175"/>
+                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$10:$J$22" spid="_x0000_s7186"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5977,7 +6942,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$25:$J$37" spid="_x0000_s7176"/>
+                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$25:$J$37" spid="_x0000_s7187"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6027,8 +6992,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>121097</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Loja">
@@ -6051,7 +7016,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6229,6 +7194,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>77,5%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="6000" b="1"/>
@@ -6237,10 +7203,373 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>413656</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>97971</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>446313</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>103414</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Imagem 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960D1917-6634-5B77-EBF9-5CE189F56668}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Tabela Dinâmica Dados Vend'!$E$18:$J$30" spid="_x0000_s7188"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2373085" y="4909457"/>
+              <a:ext cx="5361214" cy="2411186"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>745672</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CaixaDeTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCCE3C6-B314-8115-2403-88A6F9D8AD5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="4882243"/>
+          <a:ext cx="925286" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560615</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C755E117-4C1B-43B9-3C85-5A494AA3C699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3069771" y="7244443"/>
+          <a:ext cx="756558" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484414</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55783</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="10" name="Sexo">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A2A562-075B-423D-A2A2-0026EEA1A623}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sexo"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6466114" y="636814"/>
+              <a:ext cx="1828800" cy="2564940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>669471</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>985157</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FA96FE-C2CC-CEF0-361D-4EE5E2436366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>230939</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>153308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 3" descr="Money">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FEF922-417E-48EF-B64A-E70B5EDCEF67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10695215" y="4191000"/>
+          <a:ext cx="230938" cy="218622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6529,7 +7858,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6607,7 +7936,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6856,7 +8185,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6933,7 +8262,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7750,7 +9079,118 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23135FB5-E097-4B54-99E5-7A7F19126E04}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{332B9E8B-0C56-4CC9-B772-6FC9F431E9FC}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="I4:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de  Vendas " fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23135FB5-E097-4B54-99E5-7A7F19126E04}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
@@ -7874,7 +9314,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96BAF40F-D193-4453-A89D-BD5490F4B4AB}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="66">
   <location ref="H3:I8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -7977,7 +9417,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
@@ -8185,12 +9625,30 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Loja" xr10:uid="{BCF0BDD3-D1CB-4EB3-9B6D-926F1FF8BEF6}" sourceName="Loja">
   <pivotTables>
     <pivotTable tabId="8" name="Tabela dinâmica2"/>
+    <pivotTable tabId="8" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1368286870">
       <items count="3">
         <i x="2"/>
         <i x="0"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Sexo" xr10:uid="{414D6BB8-2486-42A0-947B-6C9A3EA3A8EE}" sourceName="Sexo">
+  <pivotTables>
+    <pivotTable tabId="8" name="Tabela dinâmica2"/>
+    <pivotTable tabId="8" name="Tabela dinâmica3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1368286870">
+      <items count="2">
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -8208,6 +9666,7 @@
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Loja" xr10:uid="{77BBD390-CFAC-47B7-BA7B-5AE1C869623D}" cache="SegmentaçãodeDados_Loja" caption="Loja" rowHeight="245835"/>
+  <slicer name="Sexo" xr10:uid="{DF18B233-AF6E-4EBE-8310-F9B1FB543A5B}" cache="SegmentaçãodeDados_Sexo" caption="Sexo" rowHeight="245835"/>
 </slicers>
 </file>
 
@@ -8220,7 +9679,7 @@
     <tableColumn id="3" xr3:uid="{D9976CEF-183E-40DF-B5B6-3A396F73E430}" name="Produto"/>
     <tableColumn id="4" xr3:uid="{4878D333-1636-456E-B543-3F788A40F544}" name="Valor Unitário"/>
     <tableColumn id="5" xr3:uid="{C8C37038-F89A-47CB-A9CD-41978FFE9777}" name="Unidades Vendidas"/>
-    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8235,7 +9694,7 @@
     <tableColumn id="3" xr3:uid="{85C82338-F9DF-4BE1-B996-4B4B0AFB742A}" name="Vendedor"/>
     <tableColumn id="4" xr3:uid="{4B48B585-DDFE-438A-A620-8AC5E457EAAA}" name="Sexo"/>
     <tableColumn id="5" xr3:uid="{AB7F2C5B-E3F6-4655-8C3A-7852ACE1D217}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{A318C003-5DB5-438C-97E2-65A7F2733E10}" name=" Vendas " dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A318C003-5DB5-438C-97E2-65A7F2733E10}" name=" Vendas " dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8555,22 +10014,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="30.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" ht="4.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
@@ -8589,10 +10048,10 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="16"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G9" s="4"/>
@@ -8757,7 +10216,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8768,268 +10227,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="20">
+      <c r="B1" s="24">
         <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Feminino",'Tabela Dinâmica Dados Vend'!E:E)</f>
         <v>559.35</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F5" s="23" t="str">
+      <c r="F5" s="18" t="str">
         <f t="array" ref="F5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A1)),2),"")</f>
         <v>Angela Maria</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="21">
         <f t="array" ref="G5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B1)),4),"")</f>
         <v>8</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="19">
         <f t="array" ref="H5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C1)),5),"")</f>
         <v>559.35</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F6" s="23" t="str">
+      <c r="F6" s="18" t="str">
         <f t="array" ref="F6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A2)),2),"")</f>
         <v>Carlos Moreira</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="21">
         <f t="array" ref="G6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B2)),4),"")</f>
         <v>6</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="19">
         <f t="array" ref="H6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C2)),5),"")</f>
         <v>969.99</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F7" s="23" t="str">
+      <c r="F7" s="18" t="str">
         <f t="array" ref="F7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A3)),2),"")</f>
         <v>Paulo Santos</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="21">
         <f t="array" ref="G7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B3)),4),"")</f>
         <v>20</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="19">
         <f t="array" ref="H7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C3)),5),"")</f>
         <v>954.74</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F8" s="23" t="str">
+      <c r="F8" s="18" t="str">
         <f t="array" ref="F8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A4)),2),"")</f>
         <v/>
       </c>
-      <c r="G8" s="26" t="str">
+      <c r="G8" s="21" t="str">
         <f t="array" ref="G8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B4)),4),"")</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="19" t="str">
         <f t="array" ref="H8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C4)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F9" s="23" t="str">
+      <c r="F9" s="18" t="str">
         <f t="array" ref="F9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A5)),2),"")</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="21" t="str">
         <f t="array" ref="G9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B5)),4),"")</f>
         <v/>
       </c>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="19" t="str">
         <f t="array" ref="H9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C5)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F10" s="23" t="str">
+      <c r="F10" s="18" t="str">
         <f t="array" ref="F10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A6)),2),"")</f>
         <v/>
       </c>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="21" t="str">
         <f t="array" ref="G10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B6)),4),"")</f>
         <v/>
       </c>
-      <c r="H10" s="24" t="str">
+      <c r="H10" s="19" t="str">
         <f t="array" ref="H10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C6)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F11" s="23" t="str">
+      <c r="F11" s="18" t="str">
         <f t="array" ref="F11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A7)),2),"")</f>
         <v/>
       </c>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="21" t="str">
         <f t="array" ref="G11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B7)),4),"")</f>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="19" t="str">
         <f t="array" ref="H11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C7)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F12" s="23" t="str">
+      <c r="F12" s="18" t="str">
         <f t="array" ref="F12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A8)),2),"")</f>
         <v/>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="21" t="str">
         <f t="array" ref="G12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B8)),4),"")</f>
         <v/>
       </c>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="19" t="str">
         <f t="array" ref="H12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C8)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F13" s="23" t="str">
+      <c r="F13" s="18" t="str">
         <f t="array" ref="F13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A9)),2),"")</f>
         <v/>
       </c>
-      <c r="G13" s="26" t="str">
+      <c r="G13" s="21" t="str">
         <f t="array" ref="G13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B9)),4),"")</f>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="19" t="str">
         <f t="array" ref="H13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C9)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F14" s="23" t="str">
+      <c r="F14" s="18" t="str">
         <f t="array" ref="F14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A10)),2),"")</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="21" t="str">
         <f t="array" ref="G14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B10)),4),"")</f>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="19" t="str">
         <f t="array" ref="H14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C10)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F15" s="23" t="str">
+      <c r="F15" s="18" t="str">
         <f t="array" ref="F15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A11)),2),"")</f>
         <v/>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="21" t="str">
         <f t="array" ref="G15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B11)),4),"")</f>
         <v/>
       </c>
-      <c r="H15" s="24" t="str">
+      <c r="H15" s="19" t="str">
         <f t="array" ref="H15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C11)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F16" s="23" t="str">
+      <c r="F16" s="18" t="str">
         <f t="array" ref="F16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A12)),2),"")</f>
         <v/>
       </c>
-      <c r="G16" s="26" t="str">
+      <c r="G16" s="21" t="str">
         <f t="array" ref="G16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B12)),4),"")</f>
         <v/>
       </c>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="19" t="str">
         <f t="array" ref="H16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C12)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="19">
+      <c r="B17" s="25">
         <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Masculino",'Tabela Dinâmica Dados Vend'!E:E)</f>
         <v>1924.73</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="F17" s="23" t="str">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="F17" s="18" t="str">
         <f t="array" ref="F17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A13)),2),"")</f>
         <v/>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="21" t="str">
         <f t="array" ref="G17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B13)),4),"")</f>
         <v/>
       </c>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="19" t="str">
         <f t="array" ref="H17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C13)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F18" s="23" t="str">
+      <c r="F18" s="18" t="str">
         <f t="array" ref="F18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A14)),2),"")</f>
         <v/>
       </c>
-      <c r="G18" s="26" t="str">
+      <c r="G18" s="21" t="str">
         <f t="array" ref="G18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B14)),4),"")</f>
         <v/>
       </c>
-      <c r="H18" s="24" t="str">
+      <c r="H18" s="19" t="str">
         <f t="array" ref="H18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C14)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F19" s="23" t="str">
+      <c r="F19" s="18" t="str">
         <f t="array" ref="F19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A15)),2),"")</f>
         <v/>
       </c>
-      <c r="G19" s="26" t="str">
+      <c r="G19" s="21" t="str">
         <f t="array" ref="G19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B15)),4),"")</f>
         <v/>
       </c>
-      <c r="H19" s="24" t="str">
+      <c r="H19" s="19" t="str">
         <f t="array" ref="H19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C15)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F20" s="23" t="str">
+      <c r="F20" s="18" t="str">
         <f t="array" ref="F20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A16)),2),"")</f>
         <v/>
       </c>
-      <c r="G20" s="26" t="str">
+      <c r="G20" s="21" t="str">
         <f t="array" ref="G20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B16)),4),"")</f>
         <v/>
       </c>
-      <c r="H20" s="24" t="str">
+      <c r="H20" s="19" t="str">
         <f t="array" ref="H20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C16)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F21" s="23"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="21">
         <f>SUM(G5:G21)</f>
         <v>34</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="19">
         <f>SUM(H5:H21)</f>
         <v>2484.08</v>
       </c>
@@ -9054,10 +10513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAAF423-A4C5-4D57-86BF-096FFB0AD703}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048532" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9067,9 +10526,11 @@
     <col min="3" max="3" width="9.23046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.4609375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.53515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -9077,7 +10538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -9093,8 +10554,14 @@
       <c r="E4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -9104,14 +10571,20 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="26">
         <v>8</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="26">
         <v>559.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="27">
+        <v>559.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -9121,14 +10594,20 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="26">
         <v>6</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="26">
         <v>969.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="27">
+        <v>969.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -9138,26 +10617,54 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="26">
         <v>20</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="26">
         <v>954.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="27">
+        <v>954.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="26">
         <v>34</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="26">
         <v>2484.08</v>
       </c>
+      <c r="I8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="27">
+        <v>2484.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9671,7 +11178,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:L13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0</formula>
       <formula>$A$1</formula>
     </cfRule>
@@ -9801,7 +11308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -10761,6 +12268,8 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.53515625" customWidth="1"/>
     <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">

--- a/Excel/077_Dashboard+Dados.xlsx
+++ b/Excel/077_Dashboard+Dados.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8964B556-4F38-40A8-B975-99A8CB15986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769DF648-CA9E-4803-A8DA-45EE9E023F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="685" firstSheet="1" activeTab="1" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="685" activeTab="1" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dash Funcionários" sheetId="5" r:id="rId1"/>
     <sheet name="Dash Escritórios" sheetId="10" r:id="rId2"/>
-    <sheet name="Tabela Dinâmica Dados Vend" sheetId="8" r:id="rId3"/>
-    <sheet name="Gráfico Masc &amp; Fem" sheetId="9" r:id="rId4"/>
+    <sheet name="Tabela Dinâmica Dados Vend" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Gráfico Masc &amp; Fem" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Gráfico Velocímetro" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Tabela Dinâmica" sheetId="4" r:id="rId7"/>
-    <sheet name="Vendas" sheetId="1" r:id="rId8"/>
-    <sheet name="Dados Vendedor" sheetId="2" r:id="rId9"/>
-    <sheet name="Imagens" sheetId="3" r:id="rId10"/>
+    <sheet name="Tabela Dinâmica" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Vendas" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="Dados Vendedor" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="Imagens" sheetId="3" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Loja">#N/A</definedName>
@@ -33,7 +33,7 @@
   <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="70">
   <si>
     <t>Vendedor</t>
   </si>
@@ -403,7 +403,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -436,20 +436,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -457,25 +458,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
@@ -515,6 +498,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,7 +555,7 @@
           <c:symbol val="picture"/>
           <c:spPr>
             <a:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -661,7 +647,7 @@
             <c:symbol val="picture"/>
             <c:spPr>
               <a:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -1719,13 +1705,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>1691.2199999999998</c:v>
+                  <c:v>954.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>2258.7800000000002</c:v>
+                  <c:v>2995.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,41 +1891,35 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$H$4:$H$8</c:f>
+              <c:f>'Tabela Dinâmica'!$H$4:$H$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bermuda Masculino</c:v>
+                  <c:v>Camisa Masculina</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bota Masculina</c:v>
+                  <c:v>Camisa Masculina Festa Balada</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Camisa Masculina</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Chinelo</c:v>
+                  <c:v>Sapato Social</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$I$4:$I$8</c:f>
+              <c:f>'Tabela Dinâmica'!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>297.12</c:v>
+                  <c:v>153.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.6999999999998</c:v>
+                  <c:v>146.13999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>655.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,41 +2266,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$H$4:$H$8</c:f>
+              <c:f>'Tabela Dinâmica'!$H$4:$H$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bermuda Masculino</c:v>
+                  <c:v>Camisa Masculina</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bota Masculina</c:v>
+                  <c:v>Camisa Masculina Festa Balada</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Camisa Masculina</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Chinelo</c:v>
+                  <c:v>Sapato Social</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$I$4:$I$8</c:f>
+              <c:f>'Tabela Dinâmica'!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>297.12</c:v>
+                  <c:v>153.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.6999999999998</c:v>
+                  <c:v>146.13999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>655.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,48 +2644,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3717,7 +3651,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3774,7 +3708,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3825,6 +3759,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3835,12 +3776,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3878,7 +3826,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3921,22 +3869,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4041,8 +3990,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4174,19 +4123,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4220,7 +4170,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4277,7 +4227,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4328,13 +4278,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4345,19 +4288,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4395,7 +4331,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4504,9 +4440,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -4624,6 +4565,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4739,7 +4691,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4943,527 +4895,6 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -5769,13 +5200,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>478971</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>5441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5442</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5790,7 +5221,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4397828" y="778328"/>
+          <a:off x="4397828" y="821870"/>
           <a:ext cx="2209800" cy="908957"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5839,13 +5270,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>569685</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>54672</xdr:rowOff>
+      <xdr:rowOff>22014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>139870</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56193</xdr:rowOff>
+      <xdr:rowOff>23535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5877,7 +5308,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4488542" y="794901"/>
+          <a:off x="4488542" y="838443"/>
           <a:ext cx="876471" cy="758078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5892,13 +5323,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>195943</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>141878</xdr:rowOff>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>29357</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91303</xdr:rowOff>
+      <xdr:rowOff>58645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5913,7 +5344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5421086" y="882107"/>
+          <a:off x="5421086" y="925649"/>
           <a:ext cx="1139700" cy="335867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6062,7 +5493,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1106"/>
+                  <a14:cameraTool cellRange="'Gráfico Velocímetro'!$G$5:$K$12" spid="_x0000_s1122"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6104,13 +5535,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>424541</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>48768</xdr:rowOff>
+      <xdr:rowOff>16110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>424541</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19410</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gráfico Velocímetro'!D14">
       <xdr:nvSpPr>
@@ -6125,7 +5556,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5649684" y="1251639"/>
+          <a:off x="5649684" y="1218981"/>
           <a:ext cx="653143" cy="340757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6164,7 +5595,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>11</a:t>
+            <a:t>10</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="2400">
             <a:solidFill>
@@ -6181,13 +5612,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>97971</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>408215</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6202,7 +5633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="778329"/>
+          <a:off x="2057400" y="821871"/>
           <a:ext cx="2269672" cy="903514"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6251,13 +5682,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>201385</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>62297</xdr:rowOff>
+      <xdr:rowOff>29639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>253828</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:rowOff>126093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6289,7 +5720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2160814" y="802526"/>
+          <a:off x="2160814" y="846068"/>
           <a:ext cx="705585" cy="667954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6302,15 +5733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>506185</xdr:colOff>
+      <xdr:colOff>272143</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>137125</xdr:rowOff>
+      <xdr:rowOff>104467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>357074</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6325,8 +5756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3118756" y="877354"/>
-          <a:ext cx="1157175" cy="292860"/>
+          <a:off x="2884714" y="920896"/>
+          <a:ext cx="1391217" cy="292860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6373,13 +5804,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>261258</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>94108</xdr:rowOff>
+      <xdr:rowOff>61450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>451704</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gráfico Velocímetro'!B11">
       <xdr:nvSpPr>
@@ -6394,7 +5825,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2873829" y="1220779"/>
+          <a:off x="2873829" y="1264321"/>
           <a:ext cx="1496732" cy="384866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6433,7 +5864,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t> R$ 1.691,22 </a:t>
+            <a:t> R$ 954,74 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1800">
             <a:solidFill>
@@ -6473,7 +5904,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1107"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$14:$K$25" spid="_x0000_s1123"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6601,7 +6032,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1108"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$F$31:$K$42" spid="_x0000_s1124"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6729,7 +6160,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1109"/>
+                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s1125"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6853,16 +6284,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>223158</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>321130</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>59872</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>228601</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>157843</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>250373</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>65315</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -6877,7 +6308,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$10:$J$22" spid="_x0000_s7186"/>
+                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$10:$J$22" spid="_x0000_s7198"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6891,7 +6322,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="223158" y="337457"/>
+              <a:off x="2280559" y="429986"/>
               <a:ext cx="2618014" cy="2411186"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6918,16 +6349,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>168729</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>5443</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>941614</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>54429</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>174172</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>10886</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>370114</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>59871</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -6942,7 +6373,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$25:$J$37" spid="_x0000_s7187"/>
+                  <a14:cameraTool cellRange="'Gráfico Masc &amp; Fem'!$G$25:$J$37" spid="_x0000_s7199"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6956,7 +6387,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="168729" y="3336472"/>
+              <a:off x="4207328" y="424543"/>
               <a:ext cx="2618014" cy="2411185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6982,18 +6413,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121097</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115653</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Loja">
@@ -7016,7 +6447,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7026,7 +6457,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="136071" y="5883728"/>
+              <a:off x="108857" y="1251856"/>
               <a:ext cx="1828800" cy="2564940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7059,16 +6490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>582387</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>397330</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>370115</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gráfico Masc &amp; Fem'!B2">
       <xdr:nvSpPr>
@@ -7083,8 +6514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1888673" y="326571"/>
-          <a:ext cx="1094013" cy="517072"/>
+          <a:off x="3009901" y="2754086"/>
+          <a:ext cx="1153884" cy="517072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7132,16 +6563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>615042</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>402770</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gráfico Masc &amp; Fem'!B5">
       <xdr:nvSpPr>
@@ -7156,8 +6587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1921328" y="3418114"/>
-          <a:ext cx="1094013" cy="517072"/>
+          <a:off x="4767940" y="2781299"/>
+          <a:ext cx="1094014" cy="517072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7208,15 +6639,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>413656</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>97971</xdr:rowOff>
+          <xdr:colOff>119742</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>446313</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>103414</xdr:rowOff>
+          <xdr:colOff>555171</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>119743</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -7231,7 +6662,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Tabela Dinâmica Dados Vend'!$E$18:$J$30" spid="_x0000_s7188"/>
+                  <a14:cameraTool cellRange="'Tabela Dinâmica Dados Vend'!$E$18:$J$30" spid="_x0000_s7200"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7245,7 +6676,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2373085" y="4909457"/>
+              <a:off x="2079171" y="4000500"/>
               <a:ext cx="5361214" cy="2411186"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7271,15 +6702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>473529</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:colOff>195944</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>745672</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:colOff>440873</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7294,8 +6725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3086100" y="4882243"/>
-          <a:ext cx="925286" cy="195943"/>
+          <a:off x="2808515" y="3973286"/>
+          <a:ext cx="898072" cy="195943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7334,15 +6765,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>560615</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>255815</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7357,7 +6788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3069771" y="7244443"/>
+          <a:off x="2764971" y="6308271"/>
           <a:ext cx="756558" cy="185057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7396,16 +6827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>484414</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97970</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>353785</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>55783</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>620484</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17683</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7441,7 +6872,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6466114" y="636814"/>
+              <a:off x="97970" y="3929743"/>
               <a:ext cx="1828800" cy="2564940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7470,6 +6901,274 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo: Cantos Arredondados 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA48C39-513A-42B6-8605-C01F5981DB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="119742" y="212271"/>
+          <a:ext cx="2269673" cy="903514"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9731"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>275598</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 3" descr="Money">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1283155-C131-41FB-8115-921E3B1595A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="223156" y="236468"/>
+          <a:ext cx="705585" cy="667954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>378845</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CaixaDeTexto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE11323-1A66-4A48-AD98-FC5824A42386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="947057" y="311296"/>
+          <a:ext cx="1391217" cy="292860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total  Vendas</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>94107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Gráfico Masc &amp; Fem'!E5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CaixaDeTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE6B70E-7EC1-43A4-AF83-576CD8BF96AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="767443" y="649278"/>
+          <a:ext cx="1649185" cy="384866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{893B7747-BEAC-41FC-BA1C-B8AF3BCA5946}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 12.034,93 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="3200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7925,7 +7624,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>85%</a:t>
+            <a:t>48%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="4400"/>
         </a:p>
@@ -8174,7 +7873,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>85%</a:t>
+            <a:t>48%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1600"/>
         </a:p>
@@ -9079,7 +8778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{332B9E8B-0C56-4CC9-B772-6FC9F431E9FC}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{332B9E8B-0C56-4CC9-B772-6FC9F431E9FC}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="I4:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -9138,7 +8837,7 @@
     <dataField name="Soma de  Vendas " fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9190,7 +8889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23135FB5-E097-4B54-99E5-7A7F19126E04}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23135FB5-E097-4B54-99E5-7A7F19126E04}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
@@ -9316,18 +9015,18 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96BAF40F-D193-4453-A89D-BD5490F4B4AB}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="66">
-  <location ref="H3:I8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="H3:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="9">
-        <item x="5"/>
+        <item h="1" x="5"/>
         <item h="1" x="3"/>
         <item h="1" x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="1"/>
         <item h="1" x="0"/>
         <item h="1" x="2"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9362,18 +9061,15 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -9419,7 +9115,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{910870DD-521E-4FB6-9D46-C56B5A5A6282}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="9">
@@ -9509,19 +9205,16 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
+      <x v="7"/>
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -9542,7 +9235,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="3">
     <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
@@ -9570,14 +9263,14 @@
   <data>
     <tabular pivotCacheId="178555717">
       <items count="8">
-        <i x="5" s="1"/>
+        <i x="5"/>
         <i x="3"/>
         <i x="6"/>
         <i x="7"/>
         <i x="1"/>
         <i x="0"/>
         <i x="2"/>
-        <i x="4"/>
+        <i x="4" s="1"/>
       </items>
     </tabular>
   </data>
@@ -9592,22 +9285,22 @@
   <data>
     <tabular pivotCacheId="178555717">
       <items count="18">
-        <i x="3" s="1"/>
-        <i x="5" s="1"/>
         <i x="2" s="1"/>
-        <i x="17" s="1"/>
+        <i x="4" s="1"/>
+        <i x="12" s="1"/>
+        <i x="3" s="1" nd="1"/>
         <i x="7" s="1" nd="1"/>
         <i x="15" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
         <i x="10" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
         <i x="11" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
         <i x="14" s="1" nd="1"/>
         <i x="6" s="1" nd="1"/>
         <i x="8" s="1" nd="1"/>
         <i x="16" s="1" nd="1"/>
         <i x="13" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
         <i x="9" s="1" nd="1"/>
       </items>
@@ -9679,7 +9372,7 @@
     <tableColumn id="3" xr3:uid="{D9976CEF-183E-40DF-B5B6-3A396F73E430}" name="Produto"/>
     <tableColumn id="4" xr3:uid="{4878D333-1636-456E-B543-3F788A40F544}" name="Valor Unitário"/>
     <tableColumn id="5" xr3:uid="{C8C37038-F89A-47CB-A9CD-41978FFE9777}" name="Unidades Vendidas"/>
-    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{45F43079-DE77-4DA8-ADF5-B80B289F3F8D}" name=" Total " dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9694,7 +9387,7 @@
     <tableColumn id="3" xr3:uid="{85C82338-F9DF-4BE1-B996-4B4B0AFB742A}" name="Vendedor"/>
     <tableColumn id="4" xr3:uid="{4B48B585-DDFE-438A-A620-8AC5E457EAAA}" name="Sexo"/>
     <tableColumn id="5" xr3:uid="{AB7F2C5B-E3F6-4655-8C3A-7852ACE1D217}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{A318C003-5DB5-438C-97E2-65A7F2733E10}" name=" Vendas " dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{A318C003-5DB5-438C-97E2-65A7F2733E10}" name=" Vendas " dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9997,13 +9690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9763C02-6F8B-494F-8C4D-58B6AF66267E}">
-  <dimension ref="A2:O26"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="11" width="9.23046875" customWidth="1"/>
     <col min="12" max="12" width="24.61328125" bestFit="1" customWidth="1"/>
@@ -10013,24 +9706,26 @@
     <col min="16" max="16384" width="9.23046875" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:14" ht="30.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-    </row>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:14" s="11" customFormat="1" ht="4.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
@@ -10048,14 +9743,22 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="22"/>
-    </row>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G9" s="4"/>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L15" s="8" t="s">
         <v>2</v>
@@ -10067,41 +9770,41 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L16" t="str">
         <f t="array" ref="L16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A1)),2),"")</f>
-        <v>Bermuda Masculino</v>
+        <v>Camisa Masculina</v>
       </c>
       <c r="M16" s="5">
         <f t="array" ref="M16">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B1)),5),"")</f>
-        <v>297.12</v>
+        <v>153.4</v>
       </c>
     </row>
     <row r="17" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L17" t="str">
         <f t="array" ref="L17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A2)),2),"")</f>
-        <v>Bota Masculina</v>
+        <v>Camisa Masculina Festa Balada</v>
       </c>
       <c r="M17" s="5">
         <f t="array" ref="M17">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B2)),5),"")</f>
-        <v>1120.6999999999998</v>
+        <v>146.13999999999999</v>
       </c>
     </row>
     <row r="18" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L18" t="str">
         <f t="array" ref="L18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A3)),2),"")</f>
-        <v>Camisa Masculina</v>
+        <v>Sapato Social</v>
       </c>
       <c r="M18" s="5">
         <f t="array" ref="M18">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B3)),5),"")</f>
-        <v>153.4</v>
+        <v>655.20000000000005</v>
       </c>
     </row>
     <row r="19" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L19" t="str">
         <f t="array" ref="L19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(A4)),2),"")</f>
-        <v>Chinelo</v>
-      </c>
-      <c r="M19" s="5">
+        <v/>
+      </c>
+      <c r="M19" s="5" t="str">
         <f t="array" ref="M19">IFERROR(INDEX('Tabela Dinâmica'!$A$4:$E$100,SMALL(IF('Tabela Dinâmica'!$A$4:$A$100='Tabela Dinâmica'!$B$1,ROW('Tabela Dinâmica'!$A$4:$A$100)-3),ROW(B4)),5),"")</f>
-        <v>120</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="12:14" x14ac:dyDescent="0.4">
@@ -10178,6 +9881,15 @@
         <v/>
       </c>
     </row>
+    <row r="27" spans="12:14" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="12:14" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="12:14" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="12:14" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="12:14" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L5:M5"/>
@@ -10213,290 +9925,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD65075-1C9C-4B2D-93F9-C1BE430832A9}">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.23046875" customWidth="1"/>
+    <col min="6" max="6" width="10.15234375" customWidth="1"/>
     <col min="7" max="7" width="9.3828125" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.15234375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9.23046875" customWidth="1"/>
+    <col min="11" max="11" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.23046875" customWidth="1"/>
+    <col min="13" max="13" width="15.15234375" customWidth="1"/>
+    <col min="14" max="14" width="9.23046875" customWidth="1"/>
+    <col min="15" max="16384" width="9.23046875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="24">
+    <row r="1" spans="5:13" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E2" s="26"/>
+      <c r="F2" s="22">
         <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Feminino",'Tabela Dinâmica Dados Vend'!E:E)</f>
         <v>559.35</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F5" s="18" t="str">
-        <f t="array" ref="F5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A1)),2),"")</f>
-        <v>Angela Maria</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="array" ref="G5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B1)),4),"")</f>
-        <v>8</v>
-      </c>
-      <c r="H5" s="19">
-        <f t="array" ref="H5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C1)),5),"")</f>
-        <v>559.35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F6" s="18" t="str">
-        <f t="array" ref="F6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A2)),2),"")</f>
-        <v>Carlos Moreira</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="array" ref="G6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B2)),4),"")</f>
-        <v>6</v>
-      </c>
-      <c r="H6" s="19">
-        <f t="array" ref="H6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C2)),5),"")</f>
-        <v>969.99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F7" s="18" t="str">
-        <f t="array" ref="F7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A3)),2),"")</f>
-        <v>Paulo Santos</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="array" ref="G7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B3)),4),"")</f>
-        <v>20</v>
-      </c>
-      <c r="H7" s="19">
-        <f t="array" ref="H7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C3)),5),"")</f>
-        <v>954.74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F8" s="18" t="str">
-        <f t="array" ref="F8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A4)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
-        <f t="array" ref="G8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B4)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H8" s="19" t="str">
-        <f t="array" ref="H8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C4)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F9" s="18" t="str">
-        <f t="array" ref="F9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A5)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="21" t="str">
-        <f t="array" ref="G9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B5)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="19" t="str">
-        <f t="array" ref="H9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C5)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F10" s="18" t="str">
-        <f t="array" ref="F10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A6)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="21" t="str">
-        <f t="array" ref="G10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B6)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="19" t="str">
-        <f t="array" ref="H10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C6)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F11" s="18" t="str">
-        <f t="array" ref="F11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A7)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="21" t="str">
-        <f t="array" ref="G11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B7)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="19" t="str">
-        <f t="array" ref="H11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C7)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F12" s="18" t="str">
-        <f t="array" ref="F12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A8)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G12" s="21" t="str">
-        <f t="array" ref="G12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B8)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="19" t="str">
-        <f t="array" ref="H12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C8)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F13" s="18" t="str">
-        <f t="array" ref="F13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A9)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G13" s="21" t="str">
-        <f t="array" ref="G13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B9)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="19" t="str">
-        <f t="array" ref="H13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C9)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F14" s="18" t="str">
-        <f t="array" ref="F14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A10)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G14" s="21" t="str">
-        <f t="array" ref="G14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B10)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="19" t="str">
-        <f t="array" ref="H14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C10)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F15" s="18" t="str">
-        <f t="array" ref="F15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A11)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G15" s="21" t="str">
-        <f t="array" ref="G15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B11)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H15" s="19" t="str">
-        <f t="array" ref="H15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C11)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F16" s="18" t="str">
-        <f t="array" ref="F16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A12)),2),"")</f>
-        <v/>
-      </c>
-      <c r="G16" s="21" t="str">
-        <f t="array" ref="G16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B12)),4),"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="19" t="str">
-        <f t="array" ref="H16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C12)),5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="25">
+      <c r="G2" s="27">
         <f>SUMIF('Tabela Dinâmica Dados Vend'!C:C,"Masculino",'Tabela Dinâmica Dados Vend'!E:E)</f>
         <v>1924.73</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="F17" s="18" t="str">
-        <f t="array" ref="F17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A13)),2),"")</f>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="K2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K3" s="18" t="str">
+        <f t="array" ref="K3">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A1)),2),"")</f>
+        <v>Angela Maria</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="array" ref="L3">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(F2)),4),"")</f>
+        <v>6</v>
+      </c>
+      <c r="M3" s="19">
+        <f t="array" ref="M3">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(E2)),5),"")</f>
+        <v>969.99</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K4" s="18" t="str">
+        <f t="array" ref="K4">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A2)),2),"")</f>
+        <v>Carlos Moreira</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="array" ref="L4">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B2)),4),"")</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="19">
+        <f t="array" ref="M4">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C2)),5),"")</f>
+        <v>969.99</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K5" s="18" t="str">
+        <f t="array" ref="K5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A3)),2),"")</f>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="array" ref="L5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B3)),4),"")</f>
+        <v>20</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="array" ref="M5">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C3)),5),"")</f>
+        <v>954.74</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K6" s="18" t="str">
+        <f t="array" ref="K6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A4)),2),"")</f>
         <v/>
       </c>
-      <c r="G17" s="21" t="str">
-        <f t="array" ref="G17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B13)),4),"")</f>
+      <c r="L6" s="21" t="str">
+        <f t="array" ref="L6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B4)),4),"")</f>
         <v/>
       </c>
-      <c r="H17" s="19" t="str">
-        <f t="array" ref="H17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C13)),5),"")</f>
+      <c r="M6" s="19" t="str">
+        <f t="array" ref="M6">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C4)),5),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F18" s="18" t="str">
-        <f t="array" ref="F18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A14)),2),"")</f>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K7" s="18" t="str">
+        <f t="array" ref="K7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A5)),2),"")</f>
         <v/>
       </c>
-      <c r="G18" s="21" t="str">
-        <f t="array" ref="G18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B14)),4),"")</f>
+      <c r="L7" s="21" t="str">
+        <f t="array" ref="L7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B5)),4),"")</f>
         <v/>
       </c>
-      <c r="H18" s="19" t="str">
-        <f t="array" ref="H18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C14)),5),"")</f>
+      <c r="M7" s="19" t="str">
+        <f t="array" ref="M7">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C5)),5),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F19" s="18" t="str">
-        <f t="array" ref="F19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A15)),2),"")</f>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K8" s="18" t="str">
+        <f t="array" ref="K8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A6)),2),"")</f>
         <v/>
       </c>
-      <c r="G19" s="21" t="str">
-        <f t="array" ref="G19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B15)),4),"")</f>
+      <c r="L8" s="21" t="str">
+        <f t="array" ref="L8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B6)),4),"")</f>
         <v/>
       </c>
-      <c r="H19" s="19" t="str">
-        <f t="array" ref="H19">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C15)),5),"")</f>
+      <c r="M8" s="19" t="str">
+        <f t="array" ref="M8">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C6)),5),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F20" s="18" t="str">
-        <f t="array" ref="F20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A16)),2),"")</f>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K9" s="18" t="str">
+        <f t="array" ref="K9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A7)),2),"")</f>
         <v/>
       </c>
-      <c r="G20" s="21" t="str">
-        <f t="array" ref="G20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B16)),4),"")</f>
+      <c r="L9" s="21" t="str">
+        <f t="array" ref="L9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B7)),4),"")</f>
         <v/>
       </c>
-      <c r="H20" s="19" t="str">
-        <f t="array" ref="H20">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C16)),5),"")</f>
+      <c r="M9" s="19" t="str">
+        <f t="array" ref="M9">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C7)),5),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F21" s="18"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F23" s="18" t="s">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K10" s="18" t="str">
+        <f t="array" ref="K10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A8)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="21" t="str">
+        <f t="array" ref="L10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B8)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="19" t="str">
+        <f t="array" ref="M10">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C8)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K11" s="18" t="str">
+        <f t="array" ref="K11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A9)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="21" t="str">
+        <f t="array" ref="L11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B9)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="19" t="str">
+        <f t="array" ref="M11">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C9)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K12" s="18" t="str">
+        <f t="array" ref="K12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A10)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="21" t="str">
+        <f t="array" ref="L12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B10)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="19" t="str">
+        <f t="array" ref="M12">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C10)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K13" s="18" t="str">
+        <f t="array" ref="K13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A11)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="21" t="str">
+        <f t="array" ref="L13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B11)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="19" t="str">
+        <f t="array" ref="M13">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C11)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K14" s="18" t="str">
+        <f t="array" ref="K14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A12)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="21" t="str">
+        <f t="array" ref="L14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B12)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="19" t="str">
+        <f t="array" ref="M14">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C12)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K15" s="18" t="str">
+        <f t="array" ref="K15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A13)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="21" t="str">
+        <f t="array" ref="L15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B13)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="19" t="str">
+        <f t="array" ref="M15">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C13)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="K16" s="18" t="str">
+        <f t="array" ref="K16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A14)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="21" t="str">
+        <f t="array" ref="L16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B14)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="19" t="str">
+        <f t="array" ref="M16">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C14)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="K17" s="18" t="str">
+        <f t="array" ref="K17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A15)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="21" t="str">
+        <f t="array" ref="L17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B15)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="19" t="str">
+        <f t="array" ref="M17">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C15)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="K18" s="18" t="str">
+        <f t="array" ref="K18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(A16)),2),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="21" t="str">
+        <f t="array" ref="L18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(B16)),4),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="19" t="str">
+        <f t="array" ref="M18">IFERROR(INDEX('Tabela Dinâmica Dados Vend'!$A$5:$E$100,SMALL(IF('Tabela Dinâmica Dados Vend'!$A$5:$A$100='Tabela Dinâmica Dados Vend'!$B$2,ROW('Tabela Dinâmica Dados Vend'!$A$5:$A$100)-4),ROW(C16)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="K19" s="18"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="L20" s="4"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="K21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="21">
-        <f>SUM(G5:G21)</f>
-        <v>34</v>
-      </c>
-      <c r="H23" s="19">
-        <f>SUM(H5:H21)</f>
-        <v>2484.08</v>
-      </c>
-    </row>
+      <c r="L21" s="21">
+        <f>SUM(L3:L19)</f>
+        <v>32</v>
+      </c>
+      <c r="M21" s="19">
+        <f>SUM(M3:M19)</f>
+        <v>2894.7200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="11:13" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B17:D17"/>
+  <mergeCells count="1">
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10571,16 +10306,16 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="28">
         <v>8</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="28">
         <v>559.35</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="23">
         <v>559.35</v>
       </c>
     </row>
@@ -10594,16 +10329,16 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="28">
         <v>6</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="28">
         <v>969.99</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="23">
         <v>969.99</v>
       </c>
     </row>
@@ -10617,16 +10352,16 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="28">
         <v>20</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="28">
         <v>954.74</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="23">
         <v>954.74</v>
       </c>
     </row>
@@ -10634,16 +10369,16 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="28">
         <v>34</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="28">
         <v>2484.08</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="23">
         <v>2484.08</v>
       </c>
     </row>
@@ -10670,19 +10405,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D4DCA3-B20F-4218-BB58-2B1DA478837D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:J37"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.3828125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -10693,7 +10429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -10709,7 +10445,7 @@
         <v>2484.08</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -10719,8 +10455,11 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -10730,6 +10469,10 @@
       </c>
       <c r="C5" s="7">
         <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>SUM('Dados Vendedor'!F:F)</f>
+        <v>12034.93</v>
       </c>
     </row>
   </sheetData>
@@ -10754,7 +10497,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="12">
         <f>'Gráfico Velocímetro'!D11</f>
-        <v>0.84560999999999986</v>
+        <v>0.47737000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -11178,7 +10921,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:L13">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
       <formula>0</formula>
       <formula>$A$1</formula>
     </cfRule>
@@ -11265,11 +11008,11 @@
       </c>
       <c r="B11" s="5">
         <f>SUM('Tabela Dinâmica'!E:E)/2</f>
-        <v>1691.2199999999998</v>
+        <v>954.74</v>
       </c>
       <c r="D11" s="7">
         <f>B11/B6</f>
-        <v>0.84560999999999986</v>
+        <v>0.47737000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -11286,7 +11029,7 @@
       </c>
       <c r="B13" s="6">
         <f>B6*2-(B11+B12)</f>
-        <v>2258.7800000000002</v>
+        <v>2995.26</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -11295,7 +11038,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14">
         <f>SUM('Tabela Dinâmica'!C:C)/2</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -11306,7 +11049,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0635E937-44ED-45C7-A717-74B6E47D41A2}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -11315,11 +11058,11 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.23046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.53515625" customWidth="1"/>
     <col min="4" max="4" width="20.23046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.23046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11328,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -11356,114 +11099,91 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>148.56</v>
-      </c>
-      <c r="E4">
-        <v>297.12</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>153.4</v>
+      </c>
+      <c r="E4" s="28">
+        <v>153.4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>297.12</v>
+        <v>8</v>
+      </c>
+      <c r="I4" s="28">
+        <v>153.4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>448.28</v>
-      </c>
-      <c r="E5">
-        <v>1120.6999999999998</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>146.13999999999999</v>
+      </c>
+      <c r="E5" s="28">
+        <v>146.13999999999999</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>1120.6999999999998</v>
+        <v>12</v>
+      </c>
+      <c r="I5" s="28">
+        <v>146.13999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>153.4</v>
-      </c>
-      <c r="E6">
-        <v>153.4</v>
+      <c r="D6" s="28">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E6" s="28">
+        <v>655.20000000000005</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>153.4</v>
+        <v>19</v>
+      </c>
+      <c r="I6" s="28">
+        <v>655.20000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>120</v>
+        <v>42</v>
+      </c>
+      <c r="C7" s="28">
+        <v>10</v>
+      </c>
+      <c r="D7" s="28">
+        <v>381.43999999999994</v>
+      </c>
+      <c r="E7" s="28">
+        <v>954.74</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>790.2399999999999</v>
-      </c>
-      <c r="E8">
-        <v>1691.2199999999998</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8">
-        <v>1691.2199999999998</v>
+      <c r="I7" s="28">
+        <v>954.74</v>
       </c>
     </row>
   </sheetData>
